--- a/TimeSheet Apps.xlsx
+++ b/TimeSheet Apps.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://ptwenergy.sharepoint.com/sites/2224138065-APACSEarlyWorks/Shared Documents/General/12 Daily Time/Daily Timesheet App/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c02271ef1bb6280a/timesheet_app_full_package/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_B6D9D38E6DAF3C4D6F4BB6B9E567853CC074700C" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D0CD0954-A148-47E7-90EA-D674259DD7CD}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_6E75BC3CDA63CABA861973FFF1A5261D0C677E92" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04D08217-83DD-41F5-AA31-3FED3905C31D}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeEntries" sheetId="1" r:id="rId1"/>
@@ -20,28 +20,15 @@
     <sheet name="Job Numbers" sheetId="5" r:id="rId5"/>
     <sheet name="Cost Codes" sheetId="6" r:id="rId6"/>
     <sheet name="Pay Codes" sheetId="7" r:id="rId7"/>
-    <sheet name="Time Data" sheetId="8" r:id="rId8"/>
-    <sheet name="Exports Log" sheetId="9" r:id="rId9"/>
+    <sheet name="Exports Log" sheetId="8" r:id="rId8"/>
+    <sheet name="Time Data" sheetId="9" r:id="rId9"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-  </extLst>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1204" uniqueCount="699">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="630">
   <si>
     <t>** Note: Please do not exceed 2000 rows of data.</t>
   </si>
@@ -169,6 +156,15 @@
     <t>Indirect / Direct</t>
   </si>
   <si>
+    <t>Premium Rate</t>
+  </si>
+  <si>
+    <t>Subsistence Rate</t>
+  </si>
+  <si>
+    <t>Travel Rate</t>
+  </si>
+  <si>
     <t>EMPL</t>
   </si>
   <si>
@@ -205,6 +201,9 @@
     <t>EA3</t>
   </si>
   <si>
+    <t>Y</t>
+  </si>
+  <si>
     <t>CODY PYSMENNY</t>
   </si>
   <si>
@@ -1843,18 +1842,42 @@
     <t>Subsistence</t>
   </si>
   <si>
+    <t>LogID</t>
+  </si>
+  <si>
     <t>Job Number</t>
   </si>
   <si>
+    <t>Entries Count</t>
+  </si>
+  <si>
+    <t>File Name</t>
+  </si>
+  <si>
+    <t>OneDrive Path</t>
+  </si>
+  <si>
+    <t>Share Link</t>
+  </si>
+  <si>
+    <t>Triggered By</t>
+  </si>
+  <si>
+    <t>Triggered At</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>Notes</t>
+  </si>
+  <si>
     <t>Job Area</t>
   </si>
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Class Type</t>
-  </si>
-  <si>
     <t>Trade Class</t>
   </si>
   <si>
@@ -1870,275 +1893,31 @@
     <t>Description of work</t>
   </si>
   <si>
-    <t>2025-09-15</t>
-  </si>
-  <si>
-    <t>pull cable
-tywrapped cable</t>
-  </si>
-  <si>
-    <t>LogID</t>
-  </si>
-  <si>
-    <t>Entries Count</t>
-  </si>
-  <si>
-    <t>File Name</t>
-  </si>
-  <si>
-    <t>OneDrive Path</t>
-  </si>
-  <si>
-    <t>Share Link</t>
-  </si>
-  <si>
-    <t>Triggered By</t>
-  </si>
-  <si>
-    <t>Triggered At</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-  <si>
-    <t>Notes</t>
-  </si>
-  <si>
-    <t>2025-09-16-2324138046-223010</t>
-  </si>
-  <si>
-    <t>2025-09-16</t>
-  </si>
-  <si>
-    <t>2324138046</t>
-  </si>
-  <si>
-    <t>09-16-2025 - 2324138046 - Daily Time Import.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\adamm\OneDrive - PTW Energy Services LTD\Apps\Power Apps Spreadsheets\Daily Timesheet App\September</t>
-  </si>
-  <si>
-    <t>2025-09-16T22:30:10Z</t>
-  </si>
-  <si>
-    <t>Created</t>
-  </si>
-  <si>
-    <t>2025-09-16-2424138016-223010</t>
-  </si>
-  <si>
-    <t>2424138016</t>
-  </si>
-  <si>
-    <t>09-16-2025 - 2424138016 - Daily Time Import.xlsx</t>
-  </si>
-  <si>
-    <t>2025-09-16-2424138034-223010</t>
+    <t>2025-09-25</t>
+  </si>
+  <si>
+    <t>Things</t>
+  </si>
+  <si>
+    <t>71006</t>
+  </si>
+  <si>
+    <t>70996</t>
+  </si>
+  <si>
+    <t>17182</t>
+  </si>
+  <si>
+    <t>Stuff</t>
   </si>
   <si>
     <t>2424138034</t>
   </si>
   <si>
-    <t>09-16-2025 - 2424138034 - Daily Time Import.xlsx</t>
-  </si>
-  <si>
-    <t>2025-09-16-2324138046-223321</t>
-  </si>
-  <si>
-    <t>2025-09-16T22:33:21Z</t>
-  </si>
-  <si>
-    <t>2025-09-16-2424138016-223321</t>
-  </si>
-  <si>
-    <t>2025-09-16-2424138034-223321</t>
-  </si>
-  <si>
-    <t>2025-09-16-2324138046-224041</t>
-  </si>
-  <si>
-    <t>2025-09-16T22:40:41Z</t>
-  </si>
-  <si>
-    <t>2025-09-16-2424138016-224042</t>
-  </si>
-  <si>
-    <t>2025-09-16T22:40:42Z</t>
-  </si>
-  <si>
-    <t>2025-09-16-2424138034-224042</t>
-  </si>
-  <si>
-    <t>2025-09-16-2324138046-224751</t>
-  </si>
-  <si>
-    <t>2025-09-16T22:47:51Z</t>
-  </si>
-  <si>
-    <t>2025-09-16-2424138016-224751</t>
-  </si>
-  <si>
-    <t>2025-09-16-2424138034-224751</t>
-  </si>
-  <si>
-    <t>2025-09-16-ALL-224752</t>
-  </si>
-  <si>
-    <t>ALL</t>
-  </si>
-  <si>
-    <t>09-16-2025 – Daily Time.xlsx</t>
-  </si>
-  <si>
-    <t>2025-09-16T22:47:52Z</t>
-  </si>
-  <si>
-    <t>2025-09-17-2324138046-131926</t>
-  </si>
-  <si>
-    <t>2025-09-17</t>
-  </si>
-  <si>
-    <t>09-17-2025 - 2324138046 - Daily Time Import.xlsx</t>
-  </si>
-  <si>
-    <t>C:\Users\adamm\PTW Energy Services LTD\2224138065 - APACS Early Works - General\12 Daily Time\September</t>
-  </si>
-  <si>
-    <t>2025-09-17T13:19:26Z</t>
-  </si>
-  <si>
-    <t>2025-09-17-2424138016-131926</t>
-  </si>
-  <si>
-    <t>09-17-2025 - 2424138016 - Daily Time Import.xlsx</t>
-  </si>
-  <si>
-    <t>2025-09-17-2424138034-131926</t>
-  </si>
-  <si>
-    <t>09-17-2025 - 2424138034 - Daily Time Import.xlsx</t>
-  </si>
-  <si>
-    <t>2025-09-17-ALL-131927</t>
-  </si>
-  <si>
-    <t>09-17-2025 – Daily Time.xlsx</t>
-  </si>
-  <si>
-    <t>2025-09-17T13:19:27Z</t>
-  </si>
-  <si>
-    <t>2025-09-17-2324138046-135337</t>
-  </si>
-  <si>
-    <t>2025-09-17T13:53:37Z</t>
-  </si>
-  <si>
-    <t>2025-09-17-2424138016-135337</t>
-  </si>
-  <si>
-    <t>2025-09-17-2424138034-135337</t>
-  </si>
-  <si>
-    <t>2025-09-17-2324138046-135542</t>
-  </si>
-  <si>
-    <t>2025-09-17T13:55:42Z</t>
-  </si>
-  <si>
-    <t>2025-09-17-2424138016-135542</t>
-  </si>
-  <si>
-    <t>2025-09-17-2424138034-135542</t>
-  </si>
-  <si>
-    <t>2025-09-17-ALL-135543</t>
-  </si>
-  <si>
-    <t>2025-09-17T13:55:43Z</t>
-  </si>
-  <si>
-    <t>2025-09-17-2324138046-140048</t>
-  </si>
-  <si>
-    <t>2025-09-17T14:00:48Z</t>
-  </si>
-  <si>
-    <t>2025-09-17-2424138016-140048</t>
-  </si>
-  <si>
-    <t>2025-09-17-2424138034-140048</t>
-  </si>
-  <si>
-    <t>2025-09-17-2324138046-140541</t>
-  </si>
-  <si>
-    <t>2025-09-17T14:05:41Z</t>
-  </si>
-  <si>
-    <t>2025-09-17-2424138016-140541</t>
-  </si>
-  <si>
-    <t>2025-09-17-2424138034-140541</t>
-  </si>
-  <si>
-    <t>2025-09-17-ALL-140542</t>
-  </si>
-  <si>
-    <t>2025-09-17T14:05:42Z</t>
-  </si>
-  <si>
-    <t>2025-09-17-2324138046-140948</t>
-  </si>
-  <si>
-    <t>2025-09-17T14:09:48Z</t>
-  </si>
-  <si>
-    <t>2025-09-17-2424138016-140948</t>
-  </si>
-  <si>
-    <t>2025-09-17-2424138034-140948</t>
-  </si>
-  <si>
-    <t>2025-09-17-2324138046-141200</t>
-  </si>
-  <si>
-    <t>2025-09-17T14:12:00Z</t>
-  </si>
-  <si>
-    <t>2025-09-17-2424138016-141200</t>
-  </si>
-  <si>
-    <t>2025-09-17-2424138034-141200</t>
-  </si>
-  <si>
-    <t>2025-09-17-2324138046-141749</t>
-  </si>
-  <si>
-    <t>2025-09-17T14:17:49Z</t>
-  </si>
-  <si>
-    <t>2025-09-17-2424138016-141749</t>
-  </si>
-  <si>
-    <t>2025-09-17-2424138034-141749</t>
-  </si>
-  <si>
-    <t>2025-09-17-2324138046-142729</t>
-  </si>
-  <si>
-    <t>2025-09-17T14:27:29Z</t>
-  </si>
-  <si>
-    <t>2025-09-17-2424138016-142729</t>
-  </si>
-  <si>
-    <t>2025-09-17-2424138034-142729</t>
-  </si>
-  <si>
-    <t>2025-09-17-ALL-142729</t>
+    <t>Lots of things.</t>
+  </si>
+  <si>
+    <t>nan</t>
   </si>
 </sst>
 </file>
@@ -2150,7 +1929,7 @@
     <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd;@"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yyyy"/>
   </numFmts>
-  <fonts count="24" x14ac:knownFonts="1">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2326,6 +2105,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="Aptos Narrow"/>
+    </font>
   </fonts>
   <fills count="14">
     <fill>
@@ -2406,7 +2190,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -2613,6 +2397,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2620,7 +2419,7 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="16" fillId="6" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2804,10 +2603,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="165" fontId="2" fillId="3" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2835,48 +2630,55 @@
     <xf numFmtId="2" fontId="2" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Bad 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
@@ -2884,7 +2686,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="23">
+  <dxfs count="25">
     <dxf>
       <font>
         <color auto="1"/>
@@ -3049,6 +2851,12 @@
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="center"/>
     </dxf>
@@ -3080,7 +2888,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="22"/>
+      <tableStyleElement type="wholeTable" dxfId="24"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -3150,42 +2958,44 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="Table6" displayName="Table6" ref="A1:E4" totalsRowShown="0">
-  <autoFilter ref="A1:E4" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table6" displayName="Table6" ref="A1:E4" totalsRowShown="0">
+  <autoFilter ref="A1:E4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="User's Name"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Email"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="User's Password"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Type"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Active"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="User's Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Email"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="User's Password"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Type"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Active"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="EmployeeList" displayName="EmployeeList" ref="A1:H11" totalsRowShown="0" headerRowDxfId="21">
-  <autoFilter ref="A1:H11" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:H11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="EmployeeList" displayName="EmployeeList" ref="A1:J11" totalsRowShown="0" headerRowDxfId="23">
+  <autoFilter ref="A1:J11" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J11">
     <sortCondition ref="C1:C11"/>
   </sortState>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="Time Record Type"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="Person Number" dataDxfId="20"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="Employee Name"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0200-000008000000}" name="Indirect / Direct" dataDxfId="19"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="Override Trade Class"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="Night Shift" dataDxfId="18"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="Premium Rate / Subsistence Rate / Travel Rate" dataDxfId="17"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="Active" dataDxfId="16"/>
+  <tableColumns count="10">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Time Record Type"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Person Number" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Employee Name"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Indirect / Direct" dataDxfId="21"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Override Trade Class"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Night Shift" dataDxfId="20"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0100-000007000000}" name="Premium Rate" dataDxfId="19"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0100-00000A000000}" name="Subsistence Rate" dataDxfId="18"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0100-000009000000}" name="Travel Rate" dataDxfId="17"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0100-000005000000}" name="Active" dataDxfId="16"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="JobNumbers" displayName="JobNumbers" ref="A1:G44" totalsRowShown="0">
-  <autoFilter ref="A1:G44" xr:uid="{00000000-0009-0000-0100-000004000000}">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="JobNumbers" displayName="JobNumbers" ref="A1:G44" totalsRowShown="0">
+  <autoFilter ref="A1:G44" xr:uid="{00000000-0009-0000-0100-000003000000}">
     <filterColumn colId="6">
       <filters>
         <filter val="TRUE"/>
@@ -3193,57 +3003,57 @@
     </filterColumn>
   </autoFilter>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="PROJECT NAME"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="AFE#"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="JOB #"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0300-000004000000}" name="AREA #"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0300-000005000000}" name="FCN#"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0300-000006000000}" name="DESCRIPTION"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0300-000007000000}" name="ACTIVE"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="PROJECT NAME"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="AFE#"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0200-000003000000}" name="JOB #"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0200-000004000000}" name="AREA #"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0200-000005000000}" name="FCN#"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0200-000006000000}" name="DESCRIPTION"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0200-000007000000}" name="ACTIVE"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="CostCodes" displayName="CostCodes" ref="A1:C241" totalsRowShown="0">
-  <autoFilter ref="A1:C241" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{00000000-000C-0000-FFFF-FFFF03000000}" name="CostCodes" displayName="CostCodes" ref="A1:C241" totalsRowShown="0">
+  <autoFilter ref="A1:C241" xr:uid="{00000000-0009-0000-0100-000004000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Cost Code"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Description"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="Active"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0300-000001000000}" name="Cost Code"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0300-000002000000}" name="Description"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0300-000003000000}" name="Active"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="PayCodes" displayName="PayCodes" ref="A1:C4" totalsRowShown="0">
-  <autoFilter ref="A1:C4" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{00000000-000C-0000-FFFF-FFFF04000000}" name="PayCodes" displayName="PayCodes" ref="A1:C4" totalsRowShown="0">
+  <autoFilter ref="A1:C4" xr:uid="{00000000-0009-0000-0100-000005000000}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="Pay Code"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Description"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="ACTIVE"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0400-000001000000}" name="Pay Code"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0400-000002000000}" name="Description"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0400-000003000000}" name="ACTIVE"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{00000000-000C-0000-FFFF-FFFF06000000}" name="Table8" displayName="Table8" ref="A1:K2" totalsRowShown="0">
-  <autoFilter ref="A1:K2" xr:uid="{00000000-0009-0000-0100-000007000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{00000000-000C-0000-FFFF-FFFF05000000}" name="Table8" displayName="Table8" ref="A1:K2" totalsRowShown="0">
+  <autoFilter ref="A1:K2" xr:uid="{00000000-0009-0000-0100-000006000000}"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0600-000001000000}" name="LogID"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0600-000002000000}" name="Date"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0600-000003000000}" name="Job Number"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0600-000004000000}" name="Entries Count"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0600-000005000000}" name="File Name"/>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0600-000006000000}" name="OneDrive Path"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0600-000007000000}" name="Share Link"/>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0600-000008000000}" name="Triggered By"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0600-000009000000}" name="Triggered At"/>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0600-00000A000000}" name="Status"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0600-00000B000000}" name="Notes"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0500-000001000000}" name="LogID"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0500-000002000000}" name="Date"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0500-000003000000}" name="Job Number"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0500-000004000000}" name="Entries Count"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0500-000005000000}" name="File Name"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0500-000006000000}" name="OneDrive Path"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0500-000007000000}" name="Share Link"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0500-000008000000}" name="Triggered By"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0500-000009000000}" name="Triggered At"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0500-00000A000000}" name="Status"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0500-00000B000000}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight8" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3568,7 +3378,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L11" sqref="L11"/>
     </sheetView>
   </sheetViews>
@@ -3625,528 +3435,528 @@
       <c r="N2" s="12"/>
     </row>
     <row r="3" spans="1:14" ht="76.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="83" t="s">
+      <c r="A3" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="84" t="s">
+      <c r="B3" s="82" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="85" t="s">
+      <c r="C3" s="83" t="s">
         <v>3</v>
       </c>
-      <c r="D3" s="86" t="s">
+      <c r="D3" s="84" t="s">
         <v>4</v>
       </c>
-      <c r="E3" s="87" t="s">
+      <c r="E3" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="F3" s="85" t="s">
+      <c r="F3" s="83" t="s">
         <v>6</v>
       </c>
-      <c r="G3" s="88" t="s">
+      <c r="G3" s="86" t="s">
         <v>7</v>
       </c>
-      <c r="H3" s="89" t="s">
+      <c r="H3" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="I3" s="85" t="s">
+      <c r="I3" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="89" t="s">
+      <c r="J3" s="87" t="s">
         <v>10</v>
       </c>
-      <c r="K3" s="90" t="s">
+      <c r="K3" s="88" t="s">
         <v>11</v>
       </c>
-      <c r="L3" s="85" t="s">
+      <c r="L3" s="83" t="s">
         <v>12</v>
       </c>
-      <c r="M3" s="91" t="s">
+      <c r="M3" s="89" t="s">
         <v>13</v>
       </c>
-      <c r="N3" s="85" t="s">
+      <c r="N3" s="83" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="92"/>
-      <c r="B4" s="93"/>
-      <c r="C4" s="93"/>
-      <c r="D4" s="94"/>
-      <c r="E4" s="93"/>
-      <c r="F4" s="93"/>
-      <c r="G4" s="94"/>
-      <c r="H4" s="95"/>
-      <c r="I4" s="93"/>
-      <c r="J4" s="95"/>
-      <c r="K4" s="96"/>
-      <c r="L4" s="93"/>
-      <c r="M4" s="95"/>
-      <c r="N4" s="97"/>
+      <c r="A4" s="90"/>
+      <c r="B4" s="91"/>
+      <c r="C4" s="91"/>
+      <c r="D4" s="92"/>
+      <c r="E4" s="91"/>
+      <c r="F4" s="91"/>
+      <c r="G4" s="92"/>
+      <c r="H4" s="93"/>
+      <c r="I4" s="91"/>
+      <c r="J4" s="93"/>
+      <c r="K4" s="94"/>
+      <c r="L4" s="91"/>
+      <c r="M4" s="93"/>
+      <c r="N4" s="95"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A5" s="98"/>
-      <c r="B5" s="99"/>
-      <c r="C5" s="99"/>
-      <c r="D5" s="100"/>
-      <c r="E5" s="99"/>
-      <c r="F5" s="99"/>
-      <c r="G5" s="100"/>
-      <c r="H5" s="101"/>
-      <c r="I5" s="99"/>
-      <c r="J5" s="101"/>
-      <c r="K5" s="102"/>
-      <c r="L5" s="99"/>
-      <c r="M5" s="101"/>
-      <c r="N5" s="103"/>
+      <c r="A5" s="96"/>
+      <c r="B5" s="97"/>
+      <c r="C5" s="97"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="97"/>
+      <c r="F5" s="97"/>
+      <c r="G5" s="98"/>
+      <c r="H5" s="99"/>
+      <c r="I5" s="97"/>
+      <c r="J5" s="99"/>
+      <c r="K5" s="100"/>
+      <c r="L5" s="97"/>
+      <c r="M5" s="99"/>
+      <c r="N5" s="101"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="98"/>
-      <c r="B6" s="99"/>
-      <c r="C6" s="99"/>
-      <c r="D6" s="100"/>
-      <c r="E6" s="99"/>
-      <c r="F6" s="99"/>
-      <c r="G6" s="100"/>
-      <c r="H6" s="101"/>
-      <c r="I6" s="99"/>
-      <c r="J6" s="101"/>
-      <c r="K6" s="102"/>
-      <c r="L6" s="99"/>
-      <c r="M6" s="101"/>
-      <c r="N6" s="103"/>
+      <c r="A6" s="96"/>
+      <c r="B6" s="97"/>
+      <c r="C6" s="97"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="97"/>
+      <c r="F6" s="97"/>
+      <c r="G6" s="98"/>
+      <c r="H6" s="99"/>
+      <c r="I6" s="97"/>
+      <c r="J6" s="99"/>
+      <c r="K6" s="100"/>
+      <c r="L6" s="97"/>
+      <c r="M6" s="99"/>
+      <c r="N6" s="101"/>
     </row>
     <row r="7" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A7" s="98"/>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="100"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="100"/>
-      <c r="H7" s="101"/>
-      <c r="I7" s="99"/>
-      <c r="J7" s="101"/>
-      <c r="K7" s="102"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="101"/>
-      <c r="N7" s="103"/>
+      <c r="A7" s="96"/>
+      <c r="B7" s="97"/>
+      <c r="C7" s="97"/>
+      <c r="D7" s="98"/>
+      <c r="E7" s="97"/>
+      <c r="F7" s="97"/>
+      <c r="G7" s="98"/>
+      <c r="H7" s="99"/>
+      <c r="I7" s="97"/>
+      <c r="J7" s="99"/>
+      <c r="K7" s="100"/>
+      <c r="L7" s="97"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="101"/>
     </row>
     <row r="8" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A8" s="98"/>
-      <c r="B8" s="99"/>
-      <c r="C8" s="99"/>
-      <c r="D8" s="100"/>
-      <c r="E8" s="99"/>
-      <c r="F8" s="99"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="99"/>
-      <c r="J8" s="101"/>
-      <c r="K8" s="102"/>
-      <c r="L8" s="99"/>
-      <c r="M8" s="101"/>
-      <c r="N8" s="103"/>
+      <c r="A8" s="96"/>
+      <c r="B8" s="97"/>
+      <c r="C8" s="97"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="97"/>
+      <c r="F8" s="97"/>
+      <c r="G8" s="98"/>
+      <c r="H8" s="99"/>
+      <c r="I8" s="97"/>
+      <c r="J8" s="99"/>
+      <c r="K8" s="100"/>
+      <c r="L8" s="97"/>
+      <c r="M8" s="99"/>
+      <c r="N8" s="101"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A9" s="98"/>
-      <c r="B9" s="99"/>
-      <c r="C9" s="99"/>
-      <c r="D9" s="100"/>
-      <c r="E9" s="99"/>
-      <c r="F9" s="99"/>
-      <c r="G9" s="100"/>
-      <c r="H9" s="101"/>
-      <c r="I9" s="99"/>
-      <c r="J9" s="101"/>
-      <c r="K9" s="102"/>
-      <c r="L9" s="99"/>
-      <c r="M9" s="101"/>
-      <c r="N9" s="103"/>
+      <c r="A9" s="96"/>
+      <c r="B9" s="97"/>
+      <c r="C9" s="97"/>
+      <c r="D9" s="98"/>
+      <c r="E9" s="97"/>
+      <c r="F9" s="97"/>
+      <c r="G9" s="98"/>
+      <c r="H9" s="99"/>
+      <c r="I9" s="97"/>
+      <c r="J9" s="99"/>
+      <c r="K9" s="100"/>
+      <c r="L9" s="97"/>
+      <c r="M9" s="99"/>
+      <c r="N9" s="101"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A10" s="98"/>
-      <c r="B10" s="99"/>
-      <c r="C10" s="99"/>
-      <c r="D10" s="100"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="99"/>
-      <c r="J10" s="101"/>
-      <c r="K10" s="102"/>
-      <c r="L10" s="99"/>
-      <c r="M10" s="101"/>
-      <c r="N10" s="103"/>
+      <c r="A10" s="96"/>
+      <c r="B10" s="97"/>
+      <c r="C10" s="97"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="97"/>
+      <c r="F10" s="97"/>
+      <c r="G10" s="98"/>
+      <c r="H10" s="99"/>
+      <c r="I10" s="97"/>
+      <c r="J10" s="99"/>
+      <c r="K10" s="100"/>
+      <c r="L10" s="97"/>
+      <c r="M10" s="99"/>
+      <c r="N10" s="101"/>
     </row>
     <row r="11" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A11" s="98"/>
-      <c r="B11" s="99"/>
-      <c r="C11" s="99"/>
-      <c r="D11" s="100"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="99"/>
-      <c r="J11" s="101"/>
-      <c r="K11" s="102"/>
-      <c r="L11" s="99"/>
-      <c r="M11" s="101"/>
-      <c r="N11" s="103"/>
+      <c r="A11" s="96"/>
+      <c r="B11" s="97"/>
+      <c r="C11" s="97"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="97"/>
+      <c r="F11" s="97"/>
+      <c r="G11" s="98"/>
+      <c r="H11" s="99"/>
+      <c r="I11" s="97"/>
+      <c r="J11" s="99"/>
+      <c r="K11" s="100"/>
+      <c r="L11" s="97"/>
+      <c r="M11" s="99"/>
+      <c r="N11" s="101"/>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A12" s="98"/>
-      <c r="B12" s="99"/>
-      <c r="C12" s="99"/>
-      <c r="D12" s="100"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="99"/>
-      <c r="G12" s="100"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="99"/>
-      <c r="J12" s="101"/>
-      <c r="K12" s="102"/>
-      <c r="L12" s="99"/>
-      <c r="M12" s="101"/>
-      <c r="N12" s="103"/>
+      <c r="A12" s="96"/>
+      <c r="B12" s="97"/>
+      <c r="C12" s="97"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="97"/>
+      <c r="F12" s="97"/>
+      <c r="G12" s="98"/>
+      <c r="H12" s="99"/>
+      <c r="I12" s="97"/>
+      <c r="J12" s="99"/>
+      <c r="K12" s="100"/>
+      <c r="L12" s="97"/>
+      <c r="M12" s="99"/>
+      <c r="N12" s="101"/>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A13" s="98"/>
-      <c r="B13" s="99"/>
-      <c r="C13" s="99"/>
-      <c r="D13" s="100"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="99"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="99"/>
-      <c r="J13" s="101"/>
-      <c r="K13" s="102"/>
-      <c r="L13" s="99"/>
-      <c r="M13" s="101"/>
-      <c r="N13" s="103"/>
+      <c r="A13" s="96"/>
+      <c r="B13" s="97"/>
+      <c r="C13" s="97"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="97"/>
+      <c r="F13" s="97"/>
+      <c r="G13" s="98"/>
+      <c r="H13" s="99"/>
+      <c r="I13" s="97"/>
+      <c r="J13" s="99"/>
+      <c r="K13" s="100"/>
+      <c r="L13" s="97"/>
+      <c r="M13" s="99"/>
+      <c r="N13" s="101"/>
     </row>
     <row r="14" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A14" s="98"/>
-      <c r="B14" s="99"/>
-      <c r="C14" s="99"/>
-      <c r="D14" s="100"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="99"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="99"/>
-      <c r="J14" s="101"/>
-      <c r="K14" s="102"/>
-      <c r="L14" s="99"/>
-      <c r="M14" s="101"/>
-      <c r="N14" s="103"/>
+      <c r="A14" s="96"/>
+      <c r="B14" s="97"/>
+      <c r="C14" s="97"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="97"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="98"/>
+      <c r="H14" s="99"/>
+      <c r="I14" s="97"/>
+      <c r="J14" s="99"/>
+      <c r="K14" s="100"/>
+      <c r="L14" s="97"/>
+      <c r="M14" s="99"/>
+      <c r="N14" s="101"/>
     </row>
     <row r="15" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A15" s="98"/>
-      <c r="B15" s="99"/>
-      <c r="C15" s="99"/>
-      <c r="D15" s="100"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="99"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="99"/>
-      <c r="J15" s="101"/>
-      <c r="K15" s="102"/>
-      <c r="L15" s="99"/>
-      <c r="M15" s="101"/>
-      <c r="N15" s="103"/>
+      <c r="A15" s="96"/>
+      <c r="B15" s="97"/>
+      <c r="C15" s="97"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="97"/>
+      <c r="F15" s="97"/>
+      <c r="G15" s="98"/>
+      <c r="H15" s="99"/>
+      <c r="I15" s="97"/>
+      <c r="J15" s="99"/>
+      <c r="K15" s="100"/>
+      <c r="L15" s="97"/>
+      <c r="M15" s="99"/>
+      <c r="N15" s="101"/>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A16" s="98"/>
-      <c r="B16" s="99"/>
-      <c r="C16" s="99"/>
-      <c r="D16" s="100"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="99"/>
-      <c r="G16" s="100"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="99"/>
-      <c r="J16" s="101"/>
-      <c r="K16" s="102"/>
-      <c r="L16" s="99"/>
-      <c r="M16" s="101"/>
-      <c r="N16" s="103"/>
+      <c r="A16" s="96"/>
+      <c r="B16" s="97"/>
+      <c r="C16" s="97"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="97"/>
+      <c r="F16" s="97"/>
+      <c r="G16" s="98"/>
+      <c r="H16" s="99"/>
+      <c r="I16" s="97"/>
+      <c r="J16" s="99"/>
+      <c r="K16" s="100"/>
+      <c r="L16" s="97"/>
+      <c r="M16" s="99"/>
+      <c r="N16" s="101"/>
     </row>
     <row r="17" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A17" s="98"/>
-      <c r="B17" s="99"/>
-      <c r="C17" s="99"/>
-      <c r="D17" s="100"/>
-      <c r="E17" s="99"/>
-      <c r="F17" s="99"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="99"/>
-      <c r="J17" s="101"/>
-      <c r="K17" s="102"/>
-      <c r="L17" s="99"/>
-      <c r="M17" s="101"/>
-      <c r="N17" s="103"/>
+      <c r="A17" s="96"/>
+      <c r="B17" s="97"/>
+      <c r="C17" s="97"/>
+      <c r="D17" s="98"/>
+      <c r="E17" s="97"/>
+      <c r="F17" s="97"/>
+      <c r="G17" s="98"/>
+      <c r="H17" s="99"/>
+      <c r="I17" s="97"/>
+      <c r="J17" s="99"/>
+      <c r="K17" s="100"/>
+      <c r="L17" s="97"/>
+      <c r="M17" s="99"/>
+      <c r="N17" s="101"/>
     </row>
     <row r="18" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A18" s="98"/>
-      <c r="B18" s="99"/>
-      <c r="C18" s="99"/>
-      <c r="D18" s="100"/>
-      <c r="E18" s="99"/>
-      <c r="F18" s="99"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="99"/>
-      <c r="J18" s="101"/>
-      <c r="K18" s="102"/>
-      <c r="L18" s="99"/>
-      <c r="M18" s="101"/>
-      <c r="N18" s="103"/>
+      <c r="A18" s="96"/>
+      <c r="B18" s="97"/>
+      <c r="C18" s="97"/>
+      <c r="D18" s="98"/>
+      <c r="E18" s="97"/>
+      <c r="F18" s="97"/>
+      <c r="G18" s="98"/>
+      <c r="H18" s="99"/>
+      <c r="I18" s="97"/>
+      <c r="J18" s="99"/>
+      <c r="K18" s="100"/>
+      <c r="L18" s="97"/>
+      <c r="M18" s="99"/>
+      <c r="N18" s="101"/>
     </row>
     <row r="19" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A19" s="98"/>
-      <c r="B19" s="99"/>
-      <c r="C19" s="99"/>
-      <c r="D19" s="100"/>
-      <c r="E19" s="99"/>
-      <c r="F19" s="99"/>
-      <c r="G19" s="100"/>
-      <c r="H19" s="101"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="101"/>
-      <c r="K19" s="102"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="101"/>
-      <c r="N19" s="103"/>
+      <c r="A19" s="96"/>
+      <c r="B19" s="97"/>
+      <c r="C19" s="97"/>
+      <c r="D19" s="98"/>
+      <c r="E19" s="97"/>
+      <c r="F19" s="97"/>
+      <c r="G19" s="98"/>
+      <c r="H19" s="99"/>
+      <c r="I19" s="97"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="100"/>
+      <c r="L19" s="97"/>
+      <c r="M19" s="99"/>
+      <c r="N19" s="101"/>
     </row>
     <row r="20" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A20" s="98"/>
-      <c r="B20" s="99"/>
-      <c r="C20" s="99"/>
-      <c r="D20" s="100"/>
-      <c r="E20" s="99"/>
-      <c r="F20" s="99"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="99"/>
-      <c r="J20" s="101"/>
-      <c r="K20" s="102"/>
-      <c r="L20" s="99"/>
-      <c r="M20" s="101"/>
-      <c r="N20" s="103"/>
+      <c r="A20" s="96"/>
+      <c r="B20" s="97"/>
+      <c r="C20" s="97"/>
+      <c r="D20" s="98"/>
+      <c r="E20" s="97"/>
+      <c r="F20" s="97"/>
+      <c r="G20" s="98"/>
+      <c r="H20" s="99"/>
+      <c r="I20" s="97"/>
+      <c r="J20" s="99"/>
+      <c r="K20" s="100"/>
+      <c r="L20" s="97"/>
+      <c r="M20" s="99"/>
+      <c r="N20" s="101"/>
     </row>
     <row r="21" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A21" s="98"/>
-      <c r="B21" s="99"/>
-      <c r="C21" s="99"/>
-      <c r="D21" s="100"/>
-      <c r="E21" s="99"/>
-      <c r="F21" s="99"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="99"/>
-      <c r="J21" s="101"/>
-      <c r="K21" s="102"/>
-      <c r="L21" s="99"/>
-      <c r="M21" s="101"/>
-      <c r="N21" s="103"/>
+      <c r="A21" s="96"/>
+      <c r="B21" s="97"/>
+      <c r="C21" s="97"/>
+      <c r="D21" s="98"/>
+      <c r="E21" s="97"/>
+      <c r="F21" s="97"/>
+      <c r="G21" s="98"/>
+      <c r="H21" s="99"/>
+      <c r="I21" s="97"/>
+      <c r="J21" s="99"/>
+      <c r="K21" s="100"/>
+      <c r="L21" s="97"/>
+      <c r="M21" s="99"/>
+      <c r="N21" s="101"/>
     </row>
     <row r="22" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A22" s="98"/>
-      <c r="B22" s="99"/>
-      <c r="C22" s="99"/>
-      <c r="D22" s="100"/>
-      <c r="E22" s="99"/>
-      <c r="F22" s="99"/>
-      <c r="G22" s="100"/>
-      <c r="H22" s="101"/>
-      <c r="I22" s="99"/>
-      <c r="J22" s="101"/>
-      <c r="K22" s="102"/>
-      <c r="L22" s="99"/>
-      <c r="M22" s="101"/>
-      <c r="N22" s="103"/>
+      <c r="A22" s="96"/>
+      <c r="B22" s="97"/>
+      <c r="C22" s="97"/>
+      <c r="D22" s="98"/>
+      <c r="E22" s="97"/>
+      <c r="F22" s="97"/>
+      <c r="G22" s="98"/>
+      <c r="H22" s="99"/>
+      <c r="I22" s="97"/>
+      <c r="J22" s="99"/>
+      <c r="K22" s="100"/>
+      <c r="L22" s="97"/>
+      <c r="M22" s="99"/>
+      <c r="N22" s="101"/>
     </row>
     <row r="23" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A23" s="98"/>
-      <c r="B23" s="99"/>
-      <c r="C23" s="99"/>
-      <c r="D23" s="100"/>
-      <c r="E23" s="99"/>
-      <c r="F23" s="99"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="99"/>
-      <c r="J23" s="101"/>
-      <c r="K23" s="102"/>
-      <c r="L23" s="99"/>
-      <c r="M23" s="101"/>
-      <c r="N23" s="103"/>
+      <c r="A23" s="96"/>
+      <c r="B23" s="97"/>
+      <c r="C23" s="97"/>
+      <c r="D23" s="98"/>
+      <c r="E23" s="97"/>
+      <c r="F23" s="97"/>
+      <c r="G23" s="98"/>
+      <c r="H23" s="99"/>
+      <c r="I23" s="97"/>
+      <c r="J23" s="99"/>
+      <c r="K23" s="100"/>
+      <c r="L23" s="97"/>
+      <c r="M23" s="99"/>
+      <c r="N23" s="101"/>
     </row>
     <row r="24" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A24" s="98"/>
-      <c r="B24" s="99"/>
-      <c r="C24" s="99"/>
-      <c r="D24" s="100"/>
-      <c r="E24" s="99"/>
-      <c r="F24" s="99"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="99"/>
-      <c r="J24" s="101"/>
-      <c r="K24" s="102"/>
-      <c r="L24" s="99"/>
-      <c r="M24" s="101"/>
-      <c r="N24" s="103"/>
+      <c r="A24" s="96"/>
+      <c r="B24" s="97"/>
+      <c r="C24" s="97"/>
+      <c r="D24" s="98"/>
+      <c r="E24" s="97"/>
+      <c r="F24" s="97"/>
+      <c r="G24" s="98"/>
+      <c r="H24" s="99"/>
+      <c r="I24" s="97"/>
+      <c r="J24" s="99"/>
+      <c r="K24" s="100"/>
+      <c r="L24" s="97"/>
+      <c r="M24" s="99"/>
+      <c r="N24" s="101"/>
     </row>
     <row r="25" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A25" s="98"/>
-      <c r="B25" s="99"/>
-      <c r="C25" s="99"/>
-      <c r="D25" s="100"/>
-      <c r="E25" s="99"/>
-      <c r="F25" s="99"/>
-      <c r="G25" s="100"/>
-      <c r="H25" s="101"/>
-      <c r="I25" s="99"/>
-      <c r="J25" s="101"/>
-      <c r="K25" s="102"/>
-      <c r="L25" s="99"/>
-      <c r="M25" s="101"/>
-      <c r="N25" s="103"/>
+      <c r="A25" s="96"/>
+      <c r="B25" s="97"/>
+      <c r="C25" s="97"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="97"/>
+      <c r="F25" s="97"/>
+      <c r="G25" s="98"/>
+      <c r="H25" s="99"/>
+      <c r="I25" s="97"/>
+      <c r="J25" s="99"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="97"/>
+      <c r="M25" s="99"/>
+      <c r="N25" s="101"/>
     </row>
     <row r="26" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A26" s="98"/>
-      <c r="B26" s="99"/>
-      <c r="C26" s="99"/>
-      <c r="D26" s="100"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="99"/>
-      <c r="J26" s="101"/>
-      <c r="K26" s="102"/>
-      <c r="L26" s="99"/>
-      <c r="M26" s="101"/>
-      <c r="N26" s="103"/>
+      <c r="A26" s="96"/>
+      <c r="B26" s="97"/>
+      <c r="C26" s="97"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="97"/>
+      <c r="F26" s="97"/>
+      <c r="G26" s="98"/>
+      <c r="H26" s="99"/>
+      <c r="I26" s="97"/>
+      <c r="J26" s="99"/>
+      <c r="K26" s="100"/>
+      <c r="L26" s="97"/>
+      <c r="M26" s="99"/>
+      <c r="N26" s="101"/>
     </row>
     <row r="27" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A27" s="98"/>
-      <c r="B27" s="99"/>
-      <c r="C27" s="99"/>
-      <c r="D27" s="100"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="99"/>
-      <c r="J27" s="101"/>
-      <c r="K27" s="102"/>
-      <c r="L27" s="99"/>
-      <c r="M27" s="101"/>
-      <c r="N27" s="103"/>
+      <c r="A27" s="96"/>
+      <c r="B27" s="97"/>
+      <c r="C27" s="97"/>
+      <c r="D27" s="98"/>
+      <c r="E27" s="97"/>
+      <c r="F27" s="97"/>
+      <c r="G27" s="98"/>
+      <c r="H27" s="99"/>
+      <c r="I27" s="97"/>
+      <c r="J27" s="99"/>
+      <c r="K27" s="100"/>
+      <c r="L27" s="97"/>
+      <c r="M27" s="99"/>
+      <c r="N27" s="101"/>
     </row>
     <row r="28" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A28" s="98"/>
-      <c r="B28" s="99"/>
-      <c r="C28" s="99"/>
-      <c r="D28" s="100"/>
-      <c r="E28" s="99"/>
-      <c r="F28" s="99"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="99"/>
-      <c r="J28" s="101"/>
-      <c r="K28" s="102"/>
-      <c r="L28" s="99"/>
-      <c r="M28" s="101"/>
-      <c r="N28" s="103"/>
+      <c r="A28" s="96"/>
+      <c r="B28" s="97"/>
+      <c r="C28" s="97"/>
+      <c r="D28" s="98"/>
+      <c r="E28" s="97"/>
+      <c r="F28" s="97"/>
+      <c r="G28" s="98"/>
+      <c r="H28" s="99"/>
+      <c r="I28" s="97"/>
+      <c r="J28" s="99"/>
+      <c r="K28" s="100"/>
+      <c r="L28" s="97"/>
+      <c r="M28" s="99"/>
+      <c r="N28" s="101"/>
     </row>
     <row r="29" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A29" s="98"/>
-      <c r="B29" s="99"/>
-      <c r="C29" s="99"/>
-      <c r="D29" s="100"/>
-      <c r="E29" s="99"/>
-      <c r="F29" s="99"/>
-      <c r="G29" s="100"/>
-      <c r="H29" s="101"/>
-      <c r="I29" s="99"/>
-      <c r="J29" s="101"/>
-      <c r="K29" s="102"/>
-      <c r="L29" s="99"/>
-      <c r="M29" s="101"/>
-      <c r="N29" s="103"/>
+      <c r="A29" s="96"/>
+      <c r="B29" s="97"/>
+      <c r="C29" s="97"/>
+      <c r="D29" s="98"/>
+      <c r="E29" s="97"/>
+      <c r="F29" s="97"/>
+      <c r="G29" s="98"/>
+      <c r="H29" s="99"/>
+      <c r="I29" s="97"/>
+      <c r="J29" s="99"/>
+      <c r="K29" s="100"/>
+      <c r="L29" s="97"/>
+      <c r="M29" s="99"/>
+      <c r="N29" s="101"/>
     </row>
     <row r="30" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A30" s="98"/>
-      <c r="B30" s="99"/>
-      <c r="C30" s="99"/>
-      <c r="D30" s="100"/>
-      <c r="E30" s="99"/>
-      <c r="F30" s="99"/>
-      <c r="G30" s="100"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="99"/>
-      <c r="J30" s="101"/>
-      <c r="K30" s="102"/>
-      <c r="L30" s="99"/>
-      <c r="M30" s="101"/>
-      <c r="N30" s="103"/>
+      <c r="A30" s="96"/>
+      <c r="B30" s="97"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="98"/>
+      <c r="E30" s="97"/>
+      <c r="F30" s="97"/>
+      <c r="G30" s="98"/>
+      <c r="H30" s="99"/>
+      <c r="I30" s="97"/>
+      <c r="J30" s="99"/>
+      <c r="K30" s="100"/>
+      <c r="L30" s="97"/>
+      <c r="M30" s="99"/>
+      <c r="N30" s="101"/>
     </row>
     <row r="31" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A31" s="98"/>
-      <c r="B31" s="99"/>
-      <c r="C31" s="99"/>
-      <c r="D31" s="100"/>
-      <c r="E31" s="99"/>
-      <c r="F31" s="99"/>
-      <c r="G31" s="100"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="99"/>
-      <c r="J31" s="101"/>
-      <c r="K31" s="102"/>
-      <c r="L31" s="99"/>
-      <c r="M31" s="101"/>
-      <c r="N31" s="103"/>
+      <c r="A31" s="96"/>
+      <c r="B31" s="97"/>
+      <c r="C31" s="97"/>
+      <c r="D31" s="98"/>
+      <c r="E31" s="97"/>
+      <c r="F31" s="97"/>
+      <c r="G31" s="98"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="97"/>
+      <c r="J31" s="99"/>
+      <c r="K31" s="100"/>
+      <c r="L31" s="97"/>
+      <c r="M31" s="99"/>
+      <c r="N31" s="101"/>
     </row>
     <row r="32" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A32" s="98"/>
-      <c r="B32" s="99"/>
-      <c r="C32" s="99"/>
-      <c r="D32" s="100"/>
-      <c r="E32" s="99"/>
-      <c r="F32" s="99"/>
-      <c r="G32" s="100"/>
-      <c r="H32" s="101"/>
-      <c r="I32" s="99"/>
-      <c r="J32" s="101"/>
-      <c r="K32" s="102"/>
-      <c r="L32" s="99"/>
-      <c r="M32" s="101"/>
-      <c r="N32" s="103"/>
+      <c r="A32" s="96"/>
+      <c r="B32" s="97"/>
+      <c r="C32" s="97"/>
+      <c r="D32" s="98"/>
+      <c r="E32" s="97"/>
+      <c r="F32" s="97"/>
+      <c r="G32" s="98"/>
+      <c r="H32" s="99"/>
+      <c r="I32" s="97"/>
+      <c r="J32" s="99"/>
+      <c r="K32" s="100"/>
+      <c r="L32" s="97"/>
+      <c r="M32" s="99"/>
+      <c r="N32" s="101"/>
     </row>
     <row r="33" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A33" s="104"/>
-      <c r="B33" s="105"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="106"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="106"/>
-      <c r="H33" s="107"/>
-      <c r="I33" s="105"/>
-      <c r="J33" s="107"/>
-      <c r="K33" s="108"/>
-      <c r="L33" s="105"/>
-      <c r="M33" s="107"/>
-      <c r="N33" s="109"/>
+      <c r="A33" s="102"/>
+      <c r="B33" s="103"/>
+      <c r="C33" s="103"/>
+      <c r="D33" s="104"/>
+      <c r="E33" s="103"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="104"/>
+      <c r="H33" s="105"/>
+      <c r="I33" s="103"/>
+      <c r="J33" s="105"/>
+      <c r="K33" s="106"/>
+      <c r="L33" s="103"/>
+      <c r="M33" s="105"/>
+      <c r="N33" s="107"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4224,10 +4034,10 @@
       <c r="Q4" s="28"/>
     </row>
     <row r="5" spans="1:17" ht="21" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D5" s="81" t="s">
+      <c r="D5" s="109" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="82"/>
+      <c r="E5" s="110"/>
       <c r="F5" s="31" t="s">
         <v>17</v>
       </c>
@@ -9918,10 +9728,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9931,12 +9741,13 @@
     <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.5703125" customWidth="1"/>
     <col min="5" max="5" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="22.7109375" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="14" customFormat="1" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="14" t="s">
         <v>2</v>
       </c>
@@ -9956,231 +9767,265 @@
         <v>12</v>
       </c>
       <c r="G1" s="21" t="s">
-        <v>13</v>
-      </c>
-      <c r="H1" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="H1" s="21" t="s">
+        <v>43</v>
+      </c>
+      <c r="I1" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="J1" s="14" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="C2" s="15" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="D2" s="15" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E2" s="15" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="F2" s="15"/>
       <c r="G2" s="15"/>
-      <c r="H2" s="15" t="b">
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B3" s="20">
         <v>17182</v>
       </c>
       <c r="C3" s="15" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="D3" s="15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E3" s="15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="F3" s="15"/>
       <c r="G3" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="15" t="b">
+        <v>53</v>
+      </c>
+      <c r="H3" s="15"/>
+      <c r="I3" s="15"/>
+      <c r="J3" s="15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B4" s="20" t="s">
+        <v>54</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>48</v>
-      </c>
       <c r="E4" s="15" t="s">
-        <v>53</v>
-      </c>
-      <c r="F4" s="15"/>
+        <v>56</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>57</v>
+      </c>
       <c r="G4" s="15"/>
-      <c r="H4" s="15" t="b">
+      <c r="H4" s="15"/>
+      <c r="I4" s="15"/>
+      <c r="J4" s="15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B5" s="20">
         <v>71006</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E5" s="15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
-      <c r="H5" s="15" t="b">
+      <c r="H5" s="15">
+        <v>150</v>
+      </c>
+      <c r="I5" s="15"/>
+      <c r="J5" s="15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B6" s="20">
         <v>17033</v>
       </c>
       <c r="C6" s="15" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E6" s="15" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
-      <c r="H6" s="15" t="b">
+      <c r="H6" s="15">
+        <v>150</v>
+      </c>
+      <c r="I6" s="15"/>
+      <c r="J6" s="15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B7" s="20">
         <v>70996</v>
       </c>
       <c r="C7" s="15" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E7" s="15" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="15" t="b">
+      <c r="H7" s="15">
+        <v>150</v>
+      </c>
+      <c r="I7" s="15"/>
+      <c r="J7" s="15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C8" s="15" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
-      <c r="H8" s="15" t="b">
+      <c r="H8" s="15"/>
+      <c r="I8" s="15"/>
+      <c r="J8" s="15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B9" s="20">
         <v>17418</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
-      <c r="H9" s="15" t="b">
+      <c r="H9" s="15"/>
+      <c r="I9" s="15"/>
+      <c r="J9" s="15" t="b">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B10" s="20">
         <v>17163</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
-      <c r="H10" s="15" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+      <c r="J10" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="15" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B11" s="20">
         <v>17446</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
-      <c r="H11" s="15" t="b">
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+      <c r="J11" s="15" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10213,45 +10058,45 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="G1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C2" s="14">
         <v>2424138034</v>
       </c>
       <c r="D2" s="14" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="E2" s="14" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F2" s="14" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="G2" s="14" t="b">
         <v>0</v>
@@ -10259,22 +10104,22 @@
     </row>
     <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C3" s="14">
         <v>2424138034</v>
       </c>
       <c r="D3" s="14" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="E3" s="14" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F3" s="14" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="G3" s="14" t="b">
         <v>0</v>
@@ -10282,22 +10127,22 @@
     </row>
     <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C4" s="14">
         <v>2424138034</v>
       </c>
       <c r="D4" s="14" t="s">
+        <v>85</v>
+      </c>
+      <c r="E4" s="14" t="s">
         <v>81</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>77</v>
-      </c>
       <c r="F4" s="14" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="G4" s="14" t="b">
         <v>0</v>
@@ -10305,22 +10150,22 @@
     </row>
     <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B5" s="14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C5" s="14">
         <v>2424138034</v>
       </c>
       <c r="D5" s="14" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="E5" s="14" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F5" s="14" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="G5" s="14" t="b">
         <v>0</v>
@@ -10328,22 +10173,22 @@
     </row>
     <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B6" s="14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C6" s="14">
         <v>2424138034</v>
       </c>
       <c r="D6" s="14" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E6" s="14" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F6" s="14" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="G6" s="14" t="b">
         <v>0</v>
@@ -10351,22 +10196,22 @@
     </row>
     <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B7" s="14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C7" s="14">
         <v>2424138034</v>
       </c>
       <c r="D7" s="14" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="E7" s="14" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F7" s="14" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="G7" s="14" t="b">
         <v>0</v>
@@ -10374,22 +10219,22 @@
     </row>
     <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B8" s="14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C8" s="14">
         <v>2424138034</v>
       </c>
       <c r="D8" s="14" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="E8" s="14" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F8" s="14" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="G8" s="14" t="b">
         <v>0</v>
@@ -10397,22 +10242,22 @@
     </row>
     <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C9" s="14">
         <v>2424138034</v>
       </c>
       <c r="D9" s="14" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="E9" s="14" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F9" s="14" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G9" s="14" t="b">
         <v>0</v>
@@ -10420,22 +10265,22 @@
     </row>
     <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B10" s="14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C10" s="14">
         <v>2424138034</v>
       </c>
       <c r="D10" s="14" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="E10" s="14" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="G10" s="14" t="b">
         <v>0</v>
@@ -10443,22 +10288,22 @@
     </row>
     <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C11" s="14">
         <v>2424138034</v>
       </c>
       <c r="D11" s="14" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="E11" s="14" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="G11" s="14" t="b">
         <v>0</v>
@@ -10466,22 +10311,22 @@
     </row>
     <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B12" s="14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C12" s="14">
         <v>2424138034</v>
       </c>
       <c r="D12" s="14" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="E12" s="14" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="G12" s="14" t="b">
         <v>0</v>
@@ -10489,20 +10334,20 @@
     </row>
     <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B13" s="14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C13" s="14">
         <v>2424138034</v>
       </c>
       <c r="D13" s="14" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E13" s="14"/>
       <c r="F13" s="14" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G13" s="14" t="b">
         <v>0</v>
@@ -10510,22 +10355,22 @@
     </row>
     <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B14" s="14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C14" s="14">
         <v>2424138034</v>
       </c>
       <c r="D14" s="14" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="E14" s="14" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="F14" s="14" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="G14" s="14" t="b">
         <v>0</v>
@@ -10533,10 +10378,10 @@
     </row>
     <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B15" s="14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C15" s="14">
         <v>2424138034</v>
@@ -10546,7 +10391,7 @@
       </c>
       <c r="E15" s="14"/>
       <c r="F15" s="14" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="G15" s="14" t="b">
         <v>0</v>
@@ -10554,10 +10399,10 @@
     </row>
     <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B16" s="14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C16" s="14">
         <v>2424138034</v>
@@ -10566,10 +10411,10 @@
         <v>501</v>
       </c>
       <c r="E16" s="14" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G16" s="14" t="b">
         <v>0</v>
@@ -10577,22 +10422,22 @@
     </row>
     <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B17" s="14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C17" s="14">
         <v>2424138034</v>
       </c>
       <c r="D17" s="14" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="E17" s="14" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="G17" s="14" t="b">
         <v>0</v>
@@ -10600,22 +10445,22 @@
     </row>
     <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B18" s="14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C18" s="14">
         <v>2424138034</v>
       </c>
       <c r="D18" s="14" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
       <c r="E18" s="14" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="G18" s="14" t="b">
         <v>0</v>
@@ -10623,22 +10468,22 @@
     </row>
     <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B19" s="14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C19" s="14">
         <v>2424138034</v>
       </c>
       <c r="D19" s="14" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E19" s="14" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="G19" s="14" t="b">
         <v>0</v>
@@ -10646,22 +10491,22 @@
     </row>
     <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B20" s="14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C20" s="14">
         <v>2424138034</v>
       </c>
       <c r="D20" s="14" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="E20" s="14" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="F20" s="14" t="s">
-        <v>123</v>
+        <v>127</v>
       </c>
       <c r="G20" s="14" t="b">
         <v>0</v>
@@ -10669,10 +10514,10 @@
     </row>
     <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B21" s="14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C21" s="14">
         <v>2424138034</v>
@@ -10681,10 +10526,10 @@
         <v>502</v>
       </c>
       <c r="E21" s="14" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="F21" s="14" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
       <c r="G21" s="14" t="b">
         <v>0</v>
@@ -10692,10 +10537,10 @@
     </row>
     <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B22" s="14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C22" s="14">
         <v>2424138034</v>
@@ -10704,10 +10549,10 @@
         <v>503</v>
       </c>
       <c r="E22" s="14" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="F22" s="14" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="G22" s="14" t="b">
         <v>0</v>
@@ -10715,10 +10560,10 @@
     </row>
     <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B23" s="14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C23" s="14">
         <v>2424138034</v>
@@ -10727,10 +10572,10 @@
         <v>504</v>
       </c>
       <c r="E23" s="14" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="F23" s="14" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="G23" s="14" t="b">
         <v>0</v>
@@ -10738,10 +10583,10 @@
     </row>
     <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B24" s="14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C24" s="14">
         <v>2424138034</v>
@@ -10750,10 +10595,10 @@
         <v>505</v>
       </c>
       <c r="E24" s="14" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="F24" s="14" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="G24" s="14" t="b">
         <v>0</v>
@@ -10761,22 +10606,22 @@
     </row>
     <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B25" s="14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C25" s="14">
         <v>2424138034</v>
       </c>
       <c r="D25" s="14" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="E25" s="14" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="F25" s="14" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="G25" s="14" t="b">
         <v>0</v>
@@ -10784,22 +10629,22 @@
     </row>
     <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B26" s="14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C26" s="14">
         <v>2424138034</v>
       </c>
       <c r="D26" s="14" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="E26" s="14" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="F26" s="14" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G26" s="14" t="b">
         <v>0</v>
@@ -10807,22 +10652,22 @@
     </row>
     <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B27" s="14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C27" s="14">
         <v>2424138034</v>
       </c>
       <c r="D27" s="14" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
       <c r="E27" s="14" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="F27" s="14" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="G27" s="14" t="b">
         <v>0</v>
@@ -10830,10 +10675,10 @@
     </row>
     <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B28" s="14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C28" s="14">
         <v>2424138034</v>
@@ -10842,10 +10687,10 @@
         <v>506</v>
       </c>
       <c r="E28" s="14" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="F28" s="14" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="G28" s="14" t="b">
         <v>0</v>
@@ -10853,10 +10698,10 @@
     </row>
     <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B29" s="14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C29" s="14">
         <v>2424138034</v>
@@ -10865,10 +10710,10 @@
         <v>507</v>
       </c>
       <c r="E29" s="14" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="F29" s="14" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
       <c r="G29" s="14" t="b">
         <v>0</v>
@@ -10876,22 +10721,22 @@
     </row>
     <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B30" s="14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C30" s="14">
         <v>2424138034</v>
       </c>
       <c r="D30" s="14" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
       <c r="E30" s="14" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="F30" s="14" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="G30" s="14" t="b">
         <v>0</v>
@@ -10899,22 +10744,22 @@
     </row>
     <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B31" s="14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C31" s="14">
         <v>2424138034</v>
       </c>
       <c r="D31" s="14" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="E31" s="14" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="F31" s="14" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="G31" s="14" t="b">
         <v>0</v>
@@ -10922,22 +10767,22 @@
     </row>
     <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C32" s="14">
         <v>2424138034</v>
       </c>
       <c r="D32" s="14" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E32" s="14" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="F32" s="14" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="G32" s="14" t="b">
         <v>0</v>
@@ -10945,22 +10790,22 @@
     </row>
     <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C33" s="14">
         <v>2424138034</v>
       </c>
       <c r="D33" s="14" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E33" s="14" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F33" s="14" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="G33" s="14" t="b">
         <v>0</v>
@@ -10968,10 +10813,10 @@
     </row>
     <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="C34" s="14">
         <v>2424138034</v>
@@ -10981,7 +10826,7 @@
       </c>
       <c r="E34" s="14"/>
       <c r="F34" s="14" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G34" s="14" t="b">
         <v>0</v>
@@ -10989,22 +10834,22 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="14" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C35" s="14">
         <v>2424138034</v>
       </c>
       <c r="D35" s="14" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="E35" s="14" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F35" s="14" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="G35" s="14" t="b">
         <v>1</v>
@@ -11012,22 +10857,22 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="14" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C36" s="14">
         <v>2424138034</v>
       </c>
       <c r="D36" s="14" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E36" s="14" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="F36" s="14" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="G36" s="14" t="b">
         <v>1</v>
@@ -11035,22 +10880,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="14" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="C37" s="14">
         <v>2424138034</v>
       </c>
       <c r="D37" s="14" t="s">
+        <v>168</v>
+      </c>
+      <c r="E37" s="14" t="s">
         <v>164</v>
       </c>
-      <c r="E37" s="14" t="s">
-        <v>160</v>
-      </c>
       <c r="F37" s="14" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="G37" s="14" t="b">
         <v>1</v>
@@ -11058,10 +10903,10 @@
     </row>
     <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C38" s="14">
         <v>2424138034</v>
@@ -11070,10 +10915,10 @@
         <v>508</v>
       </c>
       <c r="E38" s="14" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="F38" s="14" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="G38" s="14" t="b">
         <v>0</v>
@@ -11081,10 +10926,10 @@
     </row>
     <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C39" s="14">
         <v>2424138034</v>
@@ -11093,10 +10938,10 @@
         <v>509</v>
       </c>
       <c r="E39" s="14" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="F39" s="14" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="G39" s="14" t="b">
         <v>0</v>
@@ -11104,10 +10949,10 @@
     </row>
     <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C40" s="14">
         <v>2424138034</v>
@@ -11116,10 +10961,10 @@
         <v>510</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="F40" s="14" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G40" s="14" t="b">
         <v>0</v>
@@ -11127,10 +10972,10 @@
     </row>
     <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C41" s="14">
         <v>2424138034</v>
@@ -11139,10 +10984,10 @@
         <v>511</v>
       </c>
       <c r="E41" s="14" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="F41" s="14" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G41" s="14" t="b">
         <v>0</v>
@@ -11150,10 +10995,10 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="14" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="C42" s="14">
         <v>2424138034</v>
@@ -11162,10 +11007,10 @@
         <v>512</v>
       </c>
       <c r="E42" s="14" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="F42" s="14" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G42" s="14" t="b">
         <v>1</v>
@@ -11173,10 +11018,10 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="14" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C43" s="14">
         <v>2424138016</v>
@@ -11185,10 +11030,10 @@
         <v>233</v>
       </c>
       <c r="E43" s="14" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F43" s="14" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G43" s="14" t="b">
         <v>1</v>
@@ -11196,20 +11041,20 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="14" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C44" s="14">
         <v>2324138046</v>
       </c>
       <c r="D44" s="14" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="E44" s="14"/>
       <c r="F44" s="14" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="G44" s="14" t="b">
         <v>1</v>
@@ -11239,10 +11084,10 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="B1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C1" t="s">
         <v>33</v>
@@ -11250,10 +11095,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="13" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="B2" s="13" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C2" s="15" t="b">
         <v>0</v>
@@ -11261,10 +11106,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C3" s="15" t="b">
         <v>0</v>
@@ -11272,10 +11117,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="13" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="B4" s="13" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C4" s="15" t="b">
         <v>0</v>
@@ -11283,10 +11128,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="13" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C5" s="15" t="b">
         <v>0</v>
@@ -11294,10 +11139,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B6" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C6" s="15" t="b">
         <v>1</v>
@@ -11305,10 +11150,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="13" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C7" s="15" t="b">
         <v>0</v>
@@ -11316,10 +11161,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="13" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C8" s="15" t="b">
         <v>1</v>
@@ -11327,10 +11172,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="13" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B9" s="13" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C9" s="15" t="b">
         <v>0</v>
@@ -11338,10 +11183,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" s="13" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C10" s="15" t="b">
         <v>0</v>
@@ -11349,10 +11194,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="13" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="B11" s="13" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C11" s="15" t="b">
         <v>0</v>
@@ -11360,10 +11205,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B12" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C12" s="15" t="b">
         <v>0</v>
@@ -11371,10 +11216,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="13" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="B13" s="13" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="C13" s="15" t="b">
         <v>0</v>
@@ -11382,10 +11227,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B14" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C14" s="15" t="b">
         <v>0</v>
@@ -11393,10 +11238,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" s="13" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="B15" s="13" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C15" s="15" t="b">
         <v>0</v>
@@ -11404,10 +11249,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B16" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C16" s="15" t="b">
         <v>0</v>
@@ -11415,10 +11260,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" s="13" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="B17" s="13" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C17" s="15" t="b">
         <v>0</v>
@@ -11426,10 +11271,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" s="13" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="B18" s="13" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C18" s="15" t="b">
         <v>0</v>
@@ -11437,10 +11282,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B19" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C19" s="15" t="b">
         <v>0</v>
@@ -11448,10 +11293,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" s="13" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="B20" s="13" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C20" s="15" t="b">
         <v>0</v>
@@ -11459,10 +11304,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="B21" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C21" s="15" t="b">
         <v>0</v>
@@ -11470,10 +11315,10 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B22" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C22" s="15" t="b">
         <v>0</v>
@@ -11481,10 +11326,10 @@
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" s="13" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C23" s="15" t="b">
         <v>0</v>
@@ -11492,10 +11337,10 @@
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" s="13" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C24" s="15" t="b">
         <v>1</v>
@@ -11503,10 +11348,10 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B25" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C25" s="15" t="b">
         <v>0</v>
@@ -11514,10 +11359,10 @@
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B26" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C26" s="15" t="b">
         <v>0</v>
@@ -11525,10 +11370,10 @@
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="13" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C27" s="15" t="b">
         <v>0</v>
@@ -11536,10 +11381,10 @@
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="13" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C28" s="15" t="b">
         <v>0</v>
@@ -11547,10 +11392,10 @@
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" s="13" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C29" s="15" t="b">
         <v>0</v>
@@ -11558,10 +11403,10 @@
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" s="13" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C30" s="15" t="b">
         <v>0</v>
@@ -11569,10 +11414,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="13" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C31" s="15" t="b">
         <v>0</v>
@@ -11580,10 +11425,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" s="13" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="B32" s="13" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="C32" s="15" t="b">
         <v>0</v>
@@ -11591,10 +11436,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="13" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B33" s="13" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C33" s="15" t="b">
         <v>0</v>
@@ -11602,10 +11447,10 @@
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="13" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="B34" s="13" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="C34" s="15" t="b">
         <v>0</v>
@@ -11613,10 +11458,10 @@
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B35" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C35" s="15" t="b">
         <v>0</v>
@@ -11624,10 +11469,10 @@
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="B36" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C36" s="15" t="b">
         <v>1</v>
@@ -11635,10 +11480,10 @@
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="B37" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C37" s="15" t="b">
         <v>0</v>
@@ -11646,10 +11491,10 @@
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="B38" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C38" s="15" t="b">
         <v>0</v>
@@ -11657,10 +11502,10 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B39" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="C39" s="15" t="b">
         <v>0</v>
@@ -11668,10 +11513,10 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="B40" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C40" s="15" t="b">
         <v>0</v>
@@ -11679,10 +11524,10 @@
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="B41" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="C41" s="15" t="b">
         <v>0</v>
@@ -11690,10 +11535,10 @@
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="B42" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="C42" s="15" t="b">
         <v>1</v>
@@ -11701,10 +11546,10 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="B43" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="C43" s="15" t="b">
         <v>0</v>
@@ -11712,10 +11557,10 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="B44" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="C44" s="15" t="b">
         <v>0</v>
@@ -11723,10 +11568,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B45" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C45" s="15" t="b">
         <v>0</v>
@@ -11734,10 +11579,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="B46" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="C46" s="15" t="b">
         <v>0</v>
@@ -11745,10 +11590,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="B47" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C47" s="15" t="b">
         <v>0</v>
@@ -11756,10 +11601,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="B48" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="C48" s="15" t="b">
         <v>0</v>
@@ -11767,10 +11612,10 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B49" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="C49" s="15" t="b">
         <v>0</v>
@@ -11778,10 +11623,10 @@
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="B50" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C50" s="15" t="b">
         <v>0</v>
@@ -11789,10 +11634,10 @@
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="B51" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="C51" s="15" t="b">
         <v>0</v>
@@ -11800,10 +11645,10 @@
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B52" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C52" s="15" t="b">
         <v>0</v>
@@ -11811,10 +11656,10 @@
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="B53" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="C53" s="15" t="b">
         <v>0</v>
@@ -11822,10 +11667,10 @@
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="B54" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="C54" s="15" t="b">
         <v>0</v>
@@ -11833,10 +11678,10 @@
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="B55" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="C55" s="15" t="b">
         <v>0</v>
@@ -11844,10 +11689,10 @@
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="B56" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C56" s="15" t="b">
         <v>0</v>
@@ -11855,10 +11700,10 @@
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="B57" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C57" s="15" t="b">
         <v>0</v>
@@ -11866,10 +11711,10 @@
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="B58" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="C58" s="15" t="b">
         <v>0</v>
@@ -11877,10 +11722,10 @@
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="B59" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="C59" s="15" t="b">
         <v>1</v>
@@ -11888,10 +11733,10 @@
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="B60" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="C60" s="15" t="b">
         <v>0</v>
@@ -11899,10 +11744,10 @@
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="B61" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C61" s="15" t="b">
         <v>1</v>
@@ -11910,10 +11755,10 @@
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="B62" t="s">
-        <v>287</v>
+        <v>291</v>
       </c>
       <c r="C62" s="15" t="b">
         <v>0</v>
@@ -11921,10 +11766,10 @@
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>288</v>
+        <v>292</v>
       </c>
       <c r="B63" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="C63" s="15" t="b">
         <v>0</v>
@@ -11932,10 +11777,10 @@
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>289</v>
+        <v>293</v>
       </c>
       <c r="B64" t="s">
-        <v>290</v>
+        <v>294</v>
       </c>
       <c r="C64" s="15" t="b">
         <v>0</v>
@@ -11943,10 +11788,10 @@
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>291</v>
+        <v>295</v>
       </c>
       <c r="B65" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="C65" s="15" t="b">
         <v>1</v>
@@ -11954,10 +11799,10 @@
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>292</v>
+        <v>296</v>
       </c>
       <c r="B66" t="s">
-        <v>293</v>
+        <v>297</v>
       </c>
       <c r="C66" s="15" t="b">
         <v>0</v>
@@ -11965,10 +11810,10 @@
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>294</v>
+        <v>298</v>
       </c>
       <c r="B67" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="C67" s="15" t="b">
         <v>1</v>
@@ -11976,10 +11821,10 @@
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
       <c r="B68" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="C68" s="15" t="b">
         <v>0</v>
@@ -11987,10 +11832,10 @@
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>296</v>
+        <v>300</v>
       </c>
       <c r="B69" t="s">
-        <v>297</v>
+        <v>301</v>
       </c>
       <c r="C69" s="15" t="b">
         <v>0</v>
@@ -11998,10 +11843,10 @@
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>298</v>
+        <v>302</v>
       </c>
       <c r="B70" t="s">
-        <v>299</v>
+        <v>303</v>
       </c>
       <c r="C70" s="15" t="b">
         <v>0</v>
@@ -12009,10 +11854,10 @@
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>300</v>
+        <v>304</v>
       </c>
       <c r="B71" t="s">
-        <v>301</v>
+        <v>305</v>
       </c>
       <c r="C71" s="15" t="b">
         <v>0</v>
@@ -12020,10 +11865,10 @@
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>302</v>
+        <v>306</v>
       </c>
       <c r="B72" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="C72" s="15" t="b">
         <v>0</v>
@@ -12031,10 +11876,10 @@
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>304</v>
+        <v>308</v>
       </c>
       <c r="B73" t="s">
-        <v>305</v>
+        <v>309</v>
       </c>
       <c r="C73" s="15" t="b">
         <v>1</v>
@@ -12042,10 +11887,10 @@
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>306</v>
+        <v>310</v>
       </c>
       <c r="B74" t="s">
-        <v>307</v>
+        <v>311</v>
       </c>
       <c r="C74" s="15" t="b">
         <v>0</v>
@@ -12053,10 +11898,10 @@
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>308</v>
+        <v>312</v>
       </c>
       <c r="B75" t="s">
-        <v>309</v>
+        <v>313</v>
       </c>
       <c r="C75" s="15" t="b">
         <v>1</v>
@@ -12064,10 +11909,10 @@
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>310</v>
+        <v>314</v>
       </c>
       <c r="B76" t="s">
-        <v>311</v>
+        <v>315</v>
       </c>
       <c r="C76" s="15" t="b">
         <v>0</v>
@@ -12075,10 +11920,10 @@
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="B77" t="s">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="C77" s="15" t="b">
         <v>0</v>
@@ -12086,10 +11931,10 @@
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B78" t="s">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="C78" s="15" t="b">
         <v>0</v>
@@ -12097,10 +11942,10 @@
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>316</v>
+        <v>320</v>
       </c>
       <c r="B79" t="s">
-        <v>317</v>
+        <v>321</v>
       </c>
       <c r="C79" s="15" t="b">
         <v>0</v>
@@ -12108,10 +11953,10 @@
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>318</v>
+        <v>322</v>
       </c>
       <c r="B80" t="s">
-        <v>319</v>
+        <v>323</v>
       </c>
       <c r="C80" s="15" t="b">
         <v>0</v>
@@ -12119,10 +11964,10 @@
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>320</v>
+        <v>324</v>
       </c>
       <c r="B81" t="s">
-        <v>321</v>
+        <v>325</v>
       </c>
       <c r="C81" s="15" t="b">
         <v>0</v>
@@ -12130,10 +11975,10 @@
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>322</v>
+        <v>326</v>
       </c>
       <c r="B82" t="s">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="C82" s="15" t="b">
         <v>0</v>
@@ -12141,10 +11986,10 @@
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>324</v>
+        <v>328</v>
       </c>
       <c r="B83" t="s">
-        <v>325</v>
+        <v>329</v>
       </c>
       <c r="C83" s="15" t="b">
         <v>0</v>
@@ -12152,10 +11997,10 @@
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>326</v>
+        <v>330</v>
       </c>
       <c r="B84" t="s">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="C84" s="15" t="b">
         <v>0</v>
@@ -12163,10 +12008,10 @@
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B85" t="s">
-        <v>329</v>
+        <v>333</v>
       </c>
       <c r="C85" s="15" t="b">
         <v>0</v>
@@ -12174,10 +12019,10 @@
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>330</v>
+        <v>334</v>
       </c>
       <c r="B86" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C86" s="15" t="b">
         <v>0</v>
@@ -12185,10 +12030,10 @@
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>332</v>
+        <v>336</v>
       </c>
       <c r="B87" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C87" s="15" t="b">
         <v>0</v>
@@ -12196,10 +12041,10 @@
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>334</v>
+        <v>338</v>
       </c>
       <c r="B88" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C88" s="15" t="b">
         <v>0</v>
@@ -12207,10 +12052,10 @@
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>335</v>
+        <v>339</v>
       </c>
       <c r="B89" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C89" s="15" t="b">
         <v>0</v>
@@ -12218,10 +12063,10 @@
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>337</v>
+        <v>341</v>
       </c>
       <c r="B90" t="s">
-        <v>338</v>
+        <v>342</v>
       </c>
       <c r="C90" s="15" t="b">
         <v>0</v>
@@ -12229,10 +12074,10 @@
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>339</v>
+        <v>343</v>
       </c>
       <c r="B91" t="s">
-        <v>340</v>
+        <v>344</v>
       </c>
       <c r="C91" s="15" t="b">
         <v>0</v>
@@ -12240,10 +12085,10 @@
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>341</v>
+        <v>345</v>
       </c>
       <c r="B92" t="s">
-        <v>342</v>
+        <v>346</v>
       </c>
       <c r="C92" s="15" t="b">
         <v>1</v>
@@ -12251,10 +12096,10 @@
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="B93" t="s">
-        <v>344</v>
+        <v>348</v>
       </c>
       <c r="C93" s="15" t="b">
         <v>0</v>
@@ -12262,10 +12107,10 @@
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="B94" t="s">
-        <v>346</v>
+        <v>350</v>
       </c>
       <c r="C94" s="15" t="b">
         <v>0</v>
@@ -12273,10 +12118,10 @@
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B95" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="C95" s="15" t="b">
         <v>0</v>
@@ -12284,10 +12129,10 @@
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="B96" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
       <c r="C96" s="15" t="b">
         <v>1</v>
@@ -12295,10 +12140,10 @@
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="B97" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="C97" s="15" t="b">
         <v>0</v>
@@ -12306,10 +12151,10 @@
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="B98" t="s">
-        <v>354</v>
+        <v>358</v>
       </c>
       <c r="C98" s="15" t="b">
         <v>0</v>
@@ -12317,10 +12162,10 @@
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="B99" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
       <c r="C99" s="15" t="b">
         <v>0</v>
@@ -12328,10 +12173,10 @@
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="B100" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="C100" s="15" t="b">
         <v>0</v>
@@ -12339,10 +12184,10 @@
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="B101" t="s">
-        <v>360</v>
+        <v>364</v>
       </c>
       <c r="C101" s="15" t="b">
         <v>0</v>
@@ -12350,10 +12195,10 @@
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="B102" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="C102" s="15" t="b">
         <v>0</v>
@@ -12361,10 +12206,10 @@
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="B103" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="C103" s="15" t="b">
         <v>0</v>
@@ -12372,10 +12217,10 @@
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="B104" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="C104" s="15" t="b">
         <v>1</v>
@@ -12383,10 +12228,10 @@
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B105" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="C105" s="15" t="b">
         <v>0</v>
@@ -12394,10 +12239,10 @@
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>369</v>
+        <v>373</v>
       </c>
       <c r="B106" t="s">
-        <v>370</v>
+        <v>374</v>
       </c>
       <c r="C106" s="15" t="b">
         <v>0</v>
@@ -12405,10 +12250,10 @@
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>371</v>
+        <v>375</v>
       </c>
       <c r="B107" t="s">
-        <v>372</v>
+        <v>376</v>
       </c>
       <c r="C107" s="15" t="b">
         <v>0</v>
@@ -12416,10 +12261,10 @@
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>373</v>
+        <v>377</v>
       </c>
       <c r="B108" t="s">
-        <v>374</v>
+        <v>378</v>
       </c>
       <c r="C108" s="15" t="b">
         <v>0</v>
@@ -12427,10 +12272,10 @@
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>375</v>
+        <v>379</v>
       </c>
       <c r="B109" t="s">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="C109" s="15" t="b">
         <v>1</v>
@@ -12438,10 +12283,10 @@
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="B110" t="s">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="C110" s="15" t="b">
         <v>0</v>
@@ -12449,10 +12294,10 @@
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>379</v>
+        <v>383</v>
       </c>
       <c r="B111" t="s">
-        <v>380</v>
+        <v>384</v>
       </c>
       <c r="C111" s="15" t="b">
         <v>0</v>
@@ -12460,10 +12305,10 @@
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>381</v>
+        <v>385</v>
       </c>
       <c r="B112" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="C112" s="15" t="b">
         <v>0</v>
@@ -12471,10 +12316,10 @@
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="B113" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="C113" s="15" t="b">
         <v>0</v>
@@ -12482,10 +12327,10 @@
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="B114" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="C114" s="15" t="b">
         <v>0</v>
@@ -12493,10 +12338,10 @@
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="B115" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="C115" s="15" t="b">
         <v>0</v>
@@ -12504,10 +12349,10 @@
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>389</v>
+        <v>393</v>
       </c>
       <c r="B116" t="s">
-        <v>390</v>
+        <v>394</v>
       </c>
       <c r="C116" s="15" t="b">
         <v>1</v>
@@ -12515,10 +12360,10 @@
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>391</v>
+        <v>395</v>
       </c>
       <c r="B117" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C117" s="15" t="b">
         <v>0</v>
@@ -12526,10 +12371,10 @@
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="B118" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C118" s="15" t="b">
         <v>0</v>
@@ -12537,10 +12382,10 @@
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>395</v>
+        <v>399</v>
       </c>
       <c r="B119" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C119" s="15" t="b">
         <v>0</v>
@@ -12548,10 +12393,10 @@
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>397</v>
+        <v>401</v>
       </c>
       <c r="B120" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C120" s="15" t="b">
         <v>0</v>
@@ -12559,10 +12404,10 @@
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="B121" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C121" s="15" t="b">
         <v>0</v>
@@ -12570,10 +12415,10 @@
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
       <c r="B122" t="s">
-        <v>402</v>
+        <v>406</v>
       </c>
       <c r="C122" s="15" t="b">
         <v>0</v>
@@ -12581,10 +12426,10 @@
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>403</v>
+        <v>407</v>
       </c>
       <c r="B123" t="s">
-        <v>404</v>
+        <v>408</v>
       </c>
       <c r="C123" s="15" t="b">
         <v>0</v>
@@ -12592,10 +12437,10 @@
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>405</v>
+        <v>409</v>
       </c>
       <c r="B124" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="C124" s="15" t="b">
         <v>0</v>
@@ -12603,10 +12448,10 @@
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="B125" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C125" s="15" t="b">
         <v>0</v>
@@ -12614,10 +12459,10 @@
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>409</v>
+        <v>413</v>
       </c>
       <c r="B126" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C126" s="15" t="b">
         <v>0</v>
@@ -12625,10 +12470,10 @@
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B127" t="s">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="C127" s="15" t="b">
         <v>0</v>
@@ -12636,10 +12481,10 @@
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>413</v>
+        <v>417</v>
       </c>
       <c r="B128" t="s">
-        <v>414</v>
+        <v>418</v>
       </c>
       <c r="C128" s="15" t="b">
         <v>1</v>
@@ -12647,10 +12492,10 @@
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>415</v>
+        <v>419</v>
       </c>
       <c r="B129" t="s">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="C129" s="15" t="b">
         <v>0</v>
@@ -12658,10 +12503,10 @@
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>417</v>
+        <v>421</v>
       </c>
       <c r="B130" t="s">
-        <v>418</v>
+        <v>422</v>
       </c>
       <c r="C130" s="15" t="b">
         <v>0</v>
@@ -12669,10 +12514,10 @@
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="B131" t="s">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="C131" s="15" t="b">
         <v>0</v>
@@ -12680,10 +12525,10 @@
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>421</v>
+        <v>425</v>
       </c>
       <c r="B132" t="s">
-        <v>422</v>
+        <v>426</v>
       </c>
       <c r="C132" s="15" t="b">
         <v>0</v>
@@ -12691,10 +12536,10 @@
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>423</v>
+        <v>427</v>
       </c>
       <c r="B133" t="s">
-        <v>424</v>
+        <v>428</v>
       </c>
       <c r="C133" s="15" t="b">
         <v>0</v>
@@ -12702,10 +12547,10 @@
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>425</v>
+        <v>429</v>
       </c>
       <c r="B134" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="C134" s="15" t="b">
         <v>1</v>
@@ -12713,10 +12558,10 @@
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="B135" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="C135" s="15" t="b">
         <v>0</v>
@@ -12724,10 +12569,10 @@
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="B136" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C136" s="15" t="b">
         <v>0</v>
@@ -12735,10 +12580,10 @@
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>430</v>
+        <v>434</v>
       </c>
       <c r="B137" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C137" s="15" t="b">
         <v>0</v>
@@ -12746,10 +12591,10 @@
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>432</v>
+        <v>436</v>
       </c>
       <c r="B138" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C138" s="15" t="b">
         <v>0</v>
@@ -12757,10 +12602,10 @@
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>434</v>
+        <v>438</v>
       </c>
       <c r="B139" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C139" s="15" t="b">
         <v>0</v>
@@ -12768,10 +12613,10 @@
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>435</v>
+        <v>439</v>
       </c>
       <c r="B140" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C140" s="15" t="b">
         <v>0</v>
@@ -12779,10 +12624,10 @@
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="B141" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="C141" s="15" t="b">
         <v>0</v>
@@ -12790,10 +12635,10 @@
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>437</v>
+        <v>441</v>
       </c>
       <c r="B142" t="s">
-        <v>438</v>
+        <v>442</v>
       </c>
       <c r="C142" s="15" t="b">
         <v>0</v>
@@ -12801,10 +12646,10 @@
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>439</v>
+        <v>443</v>
       </c>
       <c r="B143" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="C143" s="15" t="b">
         <v>1</v>
@@ -12812,10 +12657,10 @@
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="B144" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="C144" s="15" t="b">
         <v>0</v>
@@ -12823,10 +12668,10 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>441</v>
+        <v>445</v>
       </c>
       <c r="B145" t="s">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="C145" s="15" t="b">
         <v>0</v>
@@ -12834,10 +12679,10 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="B146" t="s">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="C146" s="15" t="b">
         <v>1</v>
@@ -12845,10 +12690,10 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>445</v>
+        <v>449</v>
       </c>
       <c r="B147" t="s">
-        <v>446</v>
+        <v>450</v>
       </c>
       <c r="C147" s="15" t="b">
         <v>0</v>
@@ -12856,10 +12701,10 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>447</v>
+        <v>451</v>
       </c>
       <c r="B148" t="s">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="C148" s="15" t="b">
         <v>0</v>
@@ -12867,10 +12712,10 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B149" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="C149" s="15" t="b">
         <v>0</v>
@@ -12878,10 +12723,10 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="B150" t="s">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="C150" s="15" t="b">
         <v>0</v>
@@ -12889,10 +12734,10 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>452</v>
+        <v>456</v>
       </c>
       <c r="B151" t="s">
-        <v>453</v>
+        <v>457</v>
       </c>
       <c r="C151" s="15" t="b">
         <v>1</v>
@@ -12900,10 +12745,10 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>454</v>
+        <v>458</v>
       </c>
       <c r="B152" t="s">
-        <v>455</v>
+        <v>459</v>
       </c>
       <c r="C152" s="15" t="b">
         <v>0</v>
@@ -12911,10 +12756,10 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>456</v>
+        <v>460</v>
       </c>
       <c r="B153" t="s">
-        <v>457</v>
+        <v>461</v>
       </c>
       <c r="C153" s="15" t="b">
         <v>0</v>
@@ -12922,10 +12767,10 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>458</v>
+        <v>462</v>
       </c>
       <c r="B154" t="s">
-        <v>459</v>
+        <v>463</v>
       </c>
       <c r="C154" s="15" t="b">
         <v>0</v>
@@ -12933,10 +12778,10 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>460</v>
+        <v>464</v>
       </c>
       <c r="B155" t="s">
-        <v>461</v>
+        <v>465</v>
       </c>
       <c r="C155" s="15" t="b">
         <v>0</v>
@@ -12944,10 +12789,10 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>462</v>
+        <v>466</v>
       </c>
       <c r="B156" t="s">
-        <v>463</v>
+        <v>467</v>
       </c>
       <c r="C156" s="15" t="b">
         <v>1</v>
@@ -12955,10 +12800,10 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>464</v>
+        <v>468</v>
       </c>
       <c r="B157" t="s">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="C157" s="15" t="b">
         <v>0</v>
@@ -12966,10 +12811,10 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>466</v>
+        <v>470</v>
       </c>
       <c r="B158" t="s">
-        <v>467</v>
+        <v>471</v>
       </c>
       <c r="C158" s="15" t="b">
         <v>0</v>
@@ -12977,10 +12822,10 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="B159" t="s">
-        <v>469</v>
+        <v>473</v>
       </c>
       <c r="C159" s="15" t="b">
         <v>0</v>
@@ -12988,10 +12833,10 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>470</v>
+        <v>474</v>
       </c>
       <c r="B160" t="s">
-        <v>471</v>
+        <v>475</v>
       </c>
       <c r="C160" s="15" t="b">
         <v>0</v>
@@ -12999,10 +12844,10 @@
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>472</v>
+        <v>476</v>
       </c>
       <c r="B161" t="s">
-        <v>473</v>
+        <v>477</v>
       </c>
       <c r="C161" s="15" t="b">
         <v>0</v>
@@ -13010,10 +12855,10 @@
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>474</v>
+        <v>478</v>
       </c>
       <c r="B162" t="s">
-        <v>475</v>
+        <v>479</v>
       </c>
       <c r="C162" s="15" t="b">
         <v>0</v>
@@ -13021,10 +12866,10 @@
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>476</v>
+        <v>480</v>
       </c>
       <c r="B163" t="s">
-        <v>477</v>
+        <v>481</v>
       </c>
       <c r="C163" s="15" t="b">
         <v>0</v>
@@ -13032,10 +12877,10 @@
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>478</v>
+        <v>482</v>
       </c>
       <c r="B164" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
       <c r="C164" s="15" t="b">
         <v>0</v>
@@ -13043,10 +12888,10 @@
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A165" t="s">
-        <v>480</v>
+        <v>484</v>
       </c>
       <c r="B165" t="s">
-        <v>481</v>
+        <v>485</v>
       </c>
       <c r="C165" s="15" t="b">
         <v>0</v>
@@ -13054,10 +12899,10 @@
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A166" t="s">
-        <v>482</v>
+        <v>486</v>
       </c>
       <c r="B166" t="s">
-        <v>483</v>
+        <v>487</v>
       </c>
       <c r="C166" s="15" t="b">
         <v>0</v>
@@ -13065,10 +12910,10 @@
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A167" t="s">
-        <v>484</v>
+        <v>488</v>
       </c>
       <c r="B167" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="C167" s="15" t="b">
         <v>0</v>
@@ -13076,10 +12921,10 @@
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A168" t="s">
-        <v>485</v>
+        <v>489</v>
       </c>
       <c r="B168" t="s">
-        <v>486</v>
+        <v>490</v>
       </c>
       <c r="C168" s="15" t="b">
         <v>0</v>
@@ -13087,10 +12932,10 @@
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A169" t="s">
-        <v>487</v>
+        <v>491</v>
       </c>
       <c r="B169" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C169" s="15" t="b">
         <v>1</v>
@@ -13098,10 +12943,10 @@
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A170" t="s">
-        <v>488</v>
+        <v>492</v>
       </c>
       <c r="B170" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C170" s="15" t="b">
         <v>0</v>
@@ -13109,10 +12954,10 @@
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A171" t="s">
-        <v>490</v>
+        <v>494</v>
       </c>
       <c r="B171" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="C171" s="15" t="b">
         <v>0</v>
@@ -13120,10 +12965,10 @@
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A172" t="s">
-        <v>491</v>
+        <v>495</v>
       </c>
       <c r="B172" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="C172" s="15" t="b">
         <v>0</v>
@@ -13131,10 +12976,10 @@
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A173" t="s">
-        <v>492</v>
+        <v>496</v>
       </c>
       <c r="B173" t="s">
-        <v>493</v>
+        <v>497</v>
       </c>
       <c r="C173" s="15" t="b">
         <v>0</v>
@@ -13142,10 +12987,10 @@
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A174" t="s">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="B174" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C174" s="15" t="b">
         <v>0</v>
@@ -13153,10 +12998,10 @@
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A175" t="s">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="B175" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C175" s="15" t="b">
         <v>0</v>
@@ -13164,10 +13009,10 @@
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A176" t="s">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B176" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C176" s="15" t="b">
         <v>0</v>
@@ -13175,10 +13020,10 @@
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A177" t="s">
-        <v>500</v>
+        <v>504</v>
       </c>
       <c r="B177" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C177" s="15" t="b">
         <v>0</v>
@@ -13186,10 +13031,10 @@
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A178" t="s">
-        <v>502</v>
+        <v>506</v>
       </c>
       <c r="B178" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C178" s="15" t="b">
         <v>0</v>
@@ -13197,10 +13042,10 @@
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A179" t="s">
-        <v>504</v>
+        <v>508</v>
       </c>
       <c r="B179" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C179" s="15" t="b">
         <v>0</v>
@@ -13208,10 +13053,10 @@
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A180" t="s">
-        <v>506</v>
+        <v>510</v>
       </c>
       <c r="B180" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="C180" s="15" t="b">
         <v>0</v>
@@ -13219,10 +13064,10 @@
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A181" t="s">
-        <v>507</v>
+        <v>511</v>
       </c>
       <c r="B181" t="s">
-        <v>508</v>
+        <v>512</v>
       </c>
       <c r="C181" s="15" t="b">
         <v>0</v>
@@ -13230,10 +13075,10 @@
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A182" t="s">
-        <v>509</v>
+        <v>513</v>
       </c>
       <c r="B182" t="s">
-        <v>510</v>
+        <v>514</v>
       </c>
       <c r="C182" s="15" t="b">
         <v>0</v>
@@ -13241,10 +13086,10 @@
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A183" t="s">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="B183" t="s">
-        <v>512</v>
+        <v>516</v>
       </c>
       <c r="C183" s="15" t="b">
         <v>0</v>
@@ -13252,10 +13097,10 @@
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A184" t="s">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="B184" t="s">
-        <v>514</v>
+        <v>518</v>
       </c>
       <c r="C184" s="15" t="b">
         <v>0</v>
@@ -13263,10 +13108,10 @@
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A185" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="B185" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="C185" s="15" t="b">
         <v>0</v>
@@ -13274,10 +13119,10 @@
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A186" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="B186" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="C186" s="15" t="b">
         <v>0</v>
@@ -13285,10 +13130,10 @@
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A187" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="B187" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C187" s="15" t="b">
         <v>0</v>
@@ -13296,10 +13141,10 @@
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A188" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B188" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C188" s="15" t="b">
         <v>0</v>
@@ -13307,10 +13152,10 @@
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A189" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="B189" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="C189" s="15" t="b">
         <v>0</v>
@@ -13318,10 +13163,10 @@
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A190" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="B190" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="C190" s="15" t="b">
         <v>0</v>
@@ -13329,10 +13174,10 @@
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A191" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="B191" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="C191" s="15" t="b">
         <v>0</v>
@@ -13340,10 +13185,10 @@
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A192" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="B192" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="C192" s="15" t="b">
         <v>0</v>
@@ -13351,10 +13196,10 @@
     </row>
     <row r="193" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A193" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="B193" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="C193" s="15" t="b">
         <v>0</v>
@@ -13362,10 +13207,10 @@
     </row>
     <row r="194" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A194" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="B194" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="C194" s="15" t="b">
         <v>0</v>
@@ -13373,10 +13218,10 @@
     </row>
     <row r="195" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A195" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="B195" t="s">
-        <v>331</v>
+        <v>335</v>
       </c>
       <c r="C195" s="15" t="b">
         <v>0</v>
@@ -13384,10 +13229,10 @@
     </row>
     <row r="196" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A196" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="B196" t="s">
-        <v>333</v>
+        <v>337</v>
       </c>
       <c r="C196" s="15" t="b">
         <v>0</v>
@@ -13395,10 +13240,10 @@
     </row>
     <row r="197" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A197" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="B197" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="C197" s="15" t="b">
         <v>0</v>
@@ -13406,10 +13251,10 @@
     </row>
     <row r="198" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A198" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="B198" t="s">
-        <v>336</v>
+        <v>340</v>
       </c>
       <c r="C198" s="15" t="b">
         <v>0</v>
@@ -13417,10 +13262,10 @@
     </row>
     <row r="199" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A199" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="B199" t="s">
-        <v>392</v>
+        <v>396</v>
       </c>
       <c r="C199" s="15" t="b">
         <v>0</v>
@@ -13428,10 +13273,10 @@
     </row>
     <row r="200" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A200" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="B200" t="s">
-        <v>394</v>
+        <v>398</v>
       </c>
       <c r="C200" s="15" t="b">
         <v>0</v>
@@ -13439,10 +13284,10 @@
     </row>
     <row r="201" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A201" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="B201" t="s">
-        <v>396</v>
+        <v>400</v>
       </c>
       <c r="C201" s="15" t="b">
         <v>0</v>
@@ -13450,10 +13295,10 @@
     </row>
     <row r="202" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A202" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="B202" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="C202" s="15" t="b">
         <v>0</v>
@@ -13461,10 +13306,10 @@
     </row>
     <row r="203" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A203" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="B203" t="s">
-        <v>400</v>
+        <v>404</v>
       </c>
       <c r="C203" s="15" t="b">
         <v>0</v>
@@ -13472,10 +13317,10 @@
     </row>
     <row r="204" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A204" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="B204" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="C204" s="15" t="b">
         <v>0</v>
@@ -13483,10 +13328,10 @@
     </row>
     <row r="205" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A205" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="B205" t="s">
-        <v>410</v>
+        <v>414</v>
       </c>
       <c r="C205" s="15" t="b">
         <v>0</v>
@@ -13494,10 +13339,10 @@
     </row>
     <row r="206" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="B206" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="C206" s="15" t="b">
         <v>0</v>
@@ -13505,10 +13350,10 @@
     </row>
     <row r="207" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="B207" t="s">
-        <v>431</v>
+        <v>435</v>
       </c>
       <c r="C207" s="15" t="b">
         <v>0</v>
@@ -13516,10 +13361,10 @@
     </row>
     <row r="208" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="B208" t="s">
-        <v>433</v>
+        <v>437</v>
       </c>
       <c r="C208" s="15" t="b">
         <v>0</v>
@@ -13527,10 +13372,10 @@
     </row>
     <row r="209" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A209" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="B209" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="C209" s="15" t="b">
         <v>0</v>
@@ -13538,10 +13383,10 @@
     </row>
     <row r="210" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A210" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="B210" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="C210" s="15" t="b">
         <v>0</v>
@@ -13549,10 +13394,10 @@
     </row>
     <row r="211" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A211" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="B211" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="C211" s="15" t="b">
         <v>0</v>
@@ -13560,10 +13405,10 @@
     </row>
     <row r="212" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A212" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="B212" t="s">
-        <v>489</v>
+        <v>493</v>
       </c>
       <c r="C212" s="15" t="b">
         <v>0</v>
@@ -13571,10 +13416,10 @@
     </row>
     <row r="213" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A213" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
       <c r="B213" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
       <c r="C213" s="15" t="b">
         <v>0</v>
@@ -13582,10 +13427,10 @@
     </row>
     <row r="214" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A214" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
       <c r="B214" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
       <c r="C214" s="15" t="b">
         <v>0</v>
@@ -13593,10 +13438,10 @@
     </row>
     <row r="215" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A215" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
       <c r="B215" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
       <c r="C215" s="15" t="b">
         <v>0</v>
@@ -13604,10 +13449,10 @@
     </row>
     <row r="216" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A216" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
       <c r="B216" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
       <c r="C216" s="15" t="b">
         <v>0</v>
@@ -13615,10 +13460,10 @@
     </row>
     <row r="217" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A217" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
       <c r="B217" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
       <c r="C217" s="15" t="b">
         <v>0</v>
@@ -13626,10 +13471,10 @@
     </row>
     <row r="218" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A218" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
       <c r="B218" t="s">
-        <v>556</v>
+        <v>560</v>
       </c>
       <c r="C218" s="15" t="b">
         <v>0</v>
@@ -13637,10 +13482,10 @@
     </row>
     <row r="219" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A219" t="s">
-        <v>557</v>
+        <v>561</v>
       </c>
       <c r="B219" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="C219" s="15" t="b">
         <v>0</v>
@@ -13648,10 +13493,10 @@
     </row>
     <row r="220" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A220" t="s">
-        <v>559</v>
+        <v>563</v>
       </c>
       <c r="B220" t="s">
-        <v>560</v>
+        <v>564</v>
       </c>
       <c r="C220" s="15" t="b">
         <v>0</v>
@@ -13659,10 +13504,10 @@
     </row>
     <row r="221" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A221" t="s">
-        <v>561</v>
+        <v>565</v>
       </c>
       <c r="B221" t="s">
-        <v>562</v>
+        <v>566</v>
       </c>
       <c r="C221" s="15" t="b">
         <v>0</v>
@@ -13670,10 +13515,10 @@
     </row>
     <row r="222" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A222" s="13" t="s">
-        <v>563</v>
+        <v>567</v>
       </c>
       <c r="B222" s="13" t="s">
-        <v>564</v>
+        <v>568</v>
       </c>
       <c r="C222" s="15" t="b">
         <v>1</v>
@@ -13681,10 +13526,10 @@
     </row>
     <row r="223" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A223" t="s">
-        <v>565</v>
+        <v>569</v>
       </c>
       <c r="B223" t="s">
-        <v>566</v>
+        <v>570</v>
       </c>
       <c r="C223" s="15" t="b">
         <v>0</v>
@@ -13692,10 +13537,10 @@
     </row>
     <row r="224" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A224" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="B224" t="s">
-        <v>568</v>
+        <v>572</v>
       </c>
       <c r="C224" s="15" t="b">
         <v>0</v>
@@ -13703,10 +13548,10 @@
     </row>
     <row r="225" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A225" t="s">
-        <v>569</v>
+        <v>573</v>
       </c>
       <c r="B225" t="s">
-        <v>570</v>
+        <v>574</v>
       </c>
       <c r="C225" s="15" t="b">
         <v>0</v>
@@ -13714,10 +13559,10 @@
     </row>
     <row r="226" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A226" t="s">
-        <v>571</v>
+        <v>575</v>
       </c>
       <c r="B226" t="s">
-        <v>572</v>
+        <v>576</v>
       </c>
       <c r="C226" s="15" t="b">
         <v>0</v>
@@ -13725,10 +13570,10 @@
     </row>
     <row r="227" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A227" t="s">
-        <v>573</v>
+        <v>577</v>
       </c>
       <c r="B227" t="s">
-        <v>574</v>
+        <v>578</v>
       </c>
       <c r="C227" s="15" t="b">
         <v>0</v>
@@ -13736,10 +13581,10 @@
     </row>
     <row r="228" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A228" t="s">
-        <v>575</v>
+        <v>579</v>
       </c>
       <c r="B228" t="s">
-        <v>576</v>
+        <v>580</v>
       </c>
       <c r="C228" s="15" t="b">
         <v>0</v>
@@ -13747,10 +13592,10 @@
     </row>
     <row r="229" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A229" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="B229" t="s">
-        <v>578</v>
+        <v>582</v>
       </c>
       <c r="C229" s="15" t="b">
         <v>0</v>
@@ -13758,10 +13603,10 @@
     </row>
     <row r="230" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A230" t="s">
-        <v>579</v>
+        <v>583</v>
       </c>
       <c r="B230" t="s">
-        <v>580</v>
+        <v>584</v>
       </c>
       <c r="C230" s="15" t="b">
         <v>0</v>
@@ -13769,10 +13614,10 @@
     </row>
     <row r="231" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A231" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="B231" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="C231" s="15" t="b">
         <v>0</v>
@@ -13780,10 +13625,10 @@
     </row>
     <row r="232" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A232" t="s">
-        <v>583</v>
+        <v>587</v>
       </c>
       <c r="B232" t="s">
-        <v>584</v>
+        <v>588</v>
       </c>
       <c r="C232" s="15" t="b">
         <v>0</v>
@@ -13791,10 +13636,10 @@
     </row>
     <row r="233" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A233" t="s">
-        <v>585</v>
+        <v>589</v>
       </c>
       <c r="B233" t="s">
-        <v>586</v>
+        <v>590</v>
       </c>
       <c r="C233" s="15" t="b">
         <v>0</v>
@@ -13802,10 +13647,10 @@
     </row>
     <row r="234" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A234" t="s">
-        <v>587</v>
+        <v>591</v>
       </c>
       <c r="B234" t="s">
-        <v>588</v>
+        <v>592</v>
       </c>
       <c r="C234" s="15" t="b">
         <v>0</v>
@@ -13813,10 +13658,10 @@
     </row>
     <row r="235" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A235" t="s">
-        <v>589</v>
+        <v>593</v>
       </c>
       <c r="B235" t="s">
-        <v>590</v>
+        <v>594</v>
       </c>
       <c r="C235" s="15" t="b">
         <v>1</v>
@@ -13824,10 +13669,10 @@
     </row>
     <row r="236" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A236" t="s">
-        <v>591</v>
+        <v>595</v>
       </c>
       <c r="B236" t="s">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="C236" s="15" t="b">
         <v>0</v>
@@ -13835,10 +13680,10 @@
     </row>
     <row r="237" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A237" t="s">
-        <v>592</v>
+        <v>596</v>
       </c>
       <c r="B237" t="s">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="C237" s="15" t="b">
         <v>0</v>
@@ -13846,10 +13691,10 @@
     </row>
     <row r="238" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A238" t="s">
-        <v>593</v>
+        <v>597</v>
       </c>
       <c r="B238" t="s">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="C238" s="15" t="b">
         <v>0</v>
@@ -13857,10 +13702,10 @@
     </row>
     <row r="239" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A239" t="s">
-        <v>594</v>
+        <v>598</v>
       </c>
       <c r="B239" t="s">
-        <v>501</v>
+        <v>505</v>
       </c>
       <c r="C239" s="15" t="b">
         <v>0</v>
@@ -13868,10 +13713,10 @@
     </row>
     <row r="240" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A240" t="s">
-        <v>595</v>
+        <v>599</v>
       </c>
       <c r="B240" t="s">
-        <v>503</v>
+        <v>507</v>
       </c>
       <c r="C240" s="15" t="b">
         <v>0</v>
@@ -13879,10 +13724,10 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A241" t="s">
-        <v>596</v>
+        <v>600</v>
       </c>
       <c r="B241" t="s">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="C241" s="15" t="b">
         <v>0</v>
@@ -14325,10 +14170,10 @@
         <v>10</v>
       </c>
       <c r="B1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="C1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
@@ -14336,7 +14181,7 @@
         <v>211</v>
       </c>
       <c r="B2" s="14" t="s">
-        <v>597</v>
+        <v>601</v>
       </c>
       <c r="C2" s="14" t="b">
         <v>1</v>
@@ -14347,7 +14192,7 @@
         <v>212</v>
       </c>
       <c r="B3" s="14" t="s">
-        <v>598</v>
+        <v>602</v>
       </c>
       <c r="C3" s="14" t="b">
         <v>1</v>
@@ -14358,7 +14203,7 @@
         <v>261</v>
       </c>
       <c r="B4" s="14" t="s">
-        <v>599</v>
+        <v>603</v>
       </c>
       <c r="C4" s="14" t="b">
         <v>1</v>
@@ -14374,168 +14219,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:M4"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>600</v>
-      </c>
-      <c r="B1" t="s">
-        <v>601</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>602</v>
-      </c>
-      <c r="E1" t="s">
-        <v>603</v>
-      </c>
-      <c r="F1" t="s">
-        <v>604</v>
-      </c>
-      <c r="G1" t="s">
-        <v>605</v>
-      </c>
-      <c r="H1" t="s">
-        <v>606</v>
-      </c>
-      <c r="I1" t="s">
-        <v>607</v>
-      </c>
-      <c r="J1" t="s">
-        <v>608</v>
-      </c>
-      <c r="K1" t="s">
-        <v>14</v>
-      </c>
-      <c r="L1" t="s">
-        <v>12</v>
-      </c>
-      <c r="M1" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>2424138034</v>
-      </c>
-      <c r="B2">
-        <v>25</v>
-      </c>
-      <c r="C2" t="s">
-        <v>609</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" t="s">
-        <v>251</v>
-      </c>
-      <c r="F2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2">
-        <v>17182</v>
-      </c>
-      <c r="H2">
-        <v>8</v>
-      </c>
-      <c r="I2">
-        <v>2</v>
-      </c>
-      <c r="K2" t="s">
-        <v>610</v>
-      </c>
-      <c r="M2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>2424138034</v>
-      </c>
-      <c r="B3">
-        <v>25</v>
-      </c>
-      <c r="C3" t="s">
-        <v>609</v>
-      </c>
-      <c r="D3" t="s">
-        <v>52</v>
-      </c>
-      <c r="E3" t="s">
-        <v>251</v>
-      </c>
-      <c r="F3" t="s">
-        <v>53</v>
-      </c>
-      <c r="G3" t="s">
-        <v>51</v>
-      </c>
-      <c r="H3">
-        <v>8</v>
-      </c>
-      <c r="I3">
-        <v>2</v>
-      </c>
-      <c r="K3" t="s">
-        <v>610</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>2424138034</v>
-      </c>
-      <c r="B4">
-        <v>25</v>
-      </c>
-      <c r="C4" t="s">
-        <v>609</v>
-      </c>
-      <c r="D4" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" t="s">
-        <v>251</v>
-      </c>
-      <c r="F4" t="s">
-        <v>55</v>
-      </c>
-      <c r="G4">
-        <v>71006</v>
-      </c>
-      <c r="H4">
-        <v>8</v>
-      </c>
-      <c r="I4">
-        <v>2</v>
-      </c>
-      <c r="K4" t="s">
-        <v>610</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:K45"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:J65"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14555,1313 +14242,37 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>611</v>
+        <v>604</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>600</v>
+        <v>605</v>
       </c>
       <c r="D1" t="s">
+        <v>606</v>
+      </c>
+      <c r="E1" t="s">
+        <v>607</v>
+      </c>
+      <c r="F1" t="s">
+        <v>608</v>
+      </c>
+      <c r="G1" t="s">
+        <v>609</v>
+      </c>
+      <c r="H1" t="s">
+        <v>610</v>
+      </c>
+      <c r="I1" t="s">
+        <v>611</v>
+      </c>
+      <c r="J1" t="s">
         <v>612</v>
       </c>
-      <c r="E1" t="s">
+      <c r="K1" t="s">
         <v>613</v>
-      </c>
-      <c r="F1" t="s">
-        <v>614</v>
-      </c>
-      <c r="G1" t="s">
-        <v>615</v>
-      </c>
-      <c r="H1" t="s">
-        <v>616</v>
-      </c>
-      <c r="I1" t="s">
-        <v>617</v>
-      </c>
-      <c r="J1" t="s">
-        <v>618</v>
-      </c>
-      <c r="K1" t="s">
-        <v>619</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>620</v>
-      </c>
-      <c r="B2" t="s">
-        <v>621</v>
-      </c>
-      <c r="C2" t="s">
-        <v>622</v>
-      </c>
-      <c r="D2">
-        <v>2</v>
-      </c>
-      <c r="E2" t="s">
-        <v>623</v>
-      </c>
-      <c r="F2" t="s">
-        <v>624</v>
-      </c>
-      <c r="H2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I2" t="s">
-        <v>625</v>
-      </c>
-      <c r="J2" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>627</v>
-      </c>
-      <c r="B3" t="s">
-        <v>621</v>
-      </c>
-      <c r="C3" t="s">
-        <v>628</v>
-      </c>
-      <c r="D3">
-        <v>5</v>
-      </c>
-      <c r="E3" t="s">
-        <v>629</v>
-      </c>
-      <c r="F3" t="s">
-        <v>624</v>
-      </c>
-      <c r="H3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" t="s">
-        <v>625</v>
-      </c>
-      <c r="J3" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>630</v>
-      </c>
-      <c r="B4" t="s">
-        <v>621</v>
-      </c>
-      <c r="C4" t="s">
-        <v>631</v>
-      </c>
-      <c r="D4">
-        <v>8</v>
-      </c>
-      <c r="E4" t="s">
-        <v>632</v>
-      </c>
-      <c r="F4" t="s">
-        <v>624</v>
-      </c>
-      <c r="H4" t="s">
-        <v>35</v>
-      </c>
-      <c r="I4" t="s">
-        <v>625</v>
-      </c>
-      <c r="J4" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>633</v>
-      </c>
-      <c r="B5" t="s">
-        <v>621</v>
-      </c>
-      <c r="C5" t="s">
-        <v>622</v>
-      </c>
-      <c r="D5">
-        <v>2</v>
-      </c>
-      <c r="E5" t="s">
-        <v>623</v>
-      </c>
-      <c r="F5" t="s">
-        <v>624</v>
-      </c>
-      <c r="H5" t="s">
-        <v>35</v>
-      </c>
-      <c r="I5" t="s">
-        <v>634</v>
-      </c>
-      <c r="J5" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>635</v>
-      </c>
-      <c r="B6" t="s">
-        <v>621</v>
-      </c>
-      <c r="C6" t="s">
-        <v>628</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>629</v>
-      </c>
-      <c r="F6" t="s">
-        <v>624</v>
-      </c>
-      <c r="H6" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" t="s">
-        <v>634</v>
-      </c>
-      <c r="J6" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>636</v>
-      </c>
-      <c r="B7" t="s">
-        <v>621</v>
-      </c>
-      <c r="C7" t="s">
-        <v>631</v>
-      </c>
-      <c r="D7">
-        <v>8</v>
-      </c>
-      <c r="E7" t="s">
-        <v>632</v>
-      </c>
-      <c r="F7" t="s">
-        <v>624</v>
-      </c>
-      <c r="H7" t="s">
-        <v>35</v>
-      </c>
-      <c r="I7" t="s">
-        <v>634</v>
-      </c>
-      <c r="J7" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>637</v>
-      </c>
-      <c r="B8" t="s">
-        <v>621</v>
-      </c>
-      <c r="C8" t="s">
-        <v>622</v>
-      </c>
-      <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>623</v>
-      </c>
-      <c r="F8" t="s">
-        <v>624</v>
-      </c>
-      <c r="H8" t="s">
-        <v>35</v>
-      </c>
-      <c r="I8" t="s">
-        <v>638</v>
-      </c>
-      <c r="J8" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>639</v>
-      </c>
-      <c r="B9" t="s">
-        <v>621</v>
-      </c>
-      <c r="C9" t="s">
-        <v>628</v>
-      </c>
-      <c r="D9">
-        <v>5</v>
-      </c>
-      <c r="E9" t="s">
-        <v>629</v>
-      </c>
-      <c r="F9" t="s">
-        <v>624</v>
-      </c>
-      <c r="H9" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" t="s">
-        <v>640</v>
-      </c>
-      <c r="J9" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>641</v>
-      </c>
-      <c r="B10" t="s">
-        <v>621</v>
-      </c>
-      <c r="C10" t="s">
-        <v>631</v>
-      </c>
-      <c r="D10">
-        <v>8</v>
-      </c>
-      <c r="E10" t="s">
-        <v>632</v>
-      </c>
-      <c r="F10" t="s">
-        <v>624</v>
-      </c>
-      <c r="H10" t="s">
-        <v>35</v>
-      </c>
-      <c r="I10" t="s">
-        <v>640</v>
-      </c>
-      <c r="J10" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>642</v>
-      </c>
-      <c r="B11" t="s">
-        <v>621</v>
-      </c>
-      <c r="C11" t="s">
-        <v>622</v>
-      </c>
-      <c r="D11">
-        <v>2</v>
-      </c>
-      <c r="E11" t="s">
-        <v>623</v>
-      </c>
-      <c r="F11" t="s">
-        <v>624</v>
-      </c>
-      <c r="H11" t="s">
-        <v>35</v>
-      </c>
-      <c r="I11" t="s">
-        <v>643</v>
-      </c>
-      <c r="J11" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>644</v>
-      </c>
-      <c r="B12" t="s">
-        <v>621</v>
-      </c>
-      <c r="C12" t="s">
-        <v>628</v>
-      </c>
-      <c r="D12">
-        <v>5</v>
-      </c>
-      <c r="E12" t="s">
-        <v>629</v>
-      </c>
-      <c r="F12" t="s">
-        <v>624</v>
-      </c>
-      <c r="H12" t="s">
-        <v>35</v>
-      </c>
-      <c r="I12" t="s">
-        <v>643</v>
-      </c>
-      <c r="J12" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>645</v>
-      </c>
-      <c r="B13" t="s">
-        <v>621</v>
-      </c>
-      <c r="C13" t="s">
-        <v>631</v>
-      </c>
-      <c r="D13">
-        <v>8</v>
-      </c>
-      <c r="E13" t="s">
-        <v>632</v>
-      </c>
-      <c r="F13" t="s">
-        <v>624</v>
-      </c>
-      <c r="H13" t="s">
-        <v>35</v>
-      </c>
-      <c r="I13" t="s">
-        <v>643</v>
-      </c>
-      <c r="J13" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>646</v>
-      </c>
-      <c r="B14" t="s">
-        <v>621</v>
-      </c>
-      <c r="C14" t="s">
-        <v>647</v>
-      </c>
-      <c r="D14">
-        <v>8</v>
-      </c>
-      <c r="E14" t="s">
-        <v>648</v>
-      </c>
-      <c r="F14" t="s">
-        <v>624</v>
-      </c>
-      <c r="H14" t="s">
-        <v>35</v>
-      </c>
-      <c r="I14" t="s">
-        <v>649</v>
-      </c>
-      <c r="J14" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>650</v>
-      </c>
-      <c r="B15" t="s">
-        <v>651</v>
-      </c>
-      <c r="C15" t="s">
-        <v>622</v>
-      </c>
-      <c r="D15">
-        <v>2</v>
-      </c>
-      <c r="E15" t="s">
-        <v>652</v>
-      </c>
-      <c r="F15" t="s">
-        <v>653</v>
-      </c>
-      <c r="H15" t="s">
-        <v>35</v>
-      </c>
-      <c r="I15" t="s">
-        <v>654</v>
-      </c>
-      <c r="J15" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>655</v>
-      </c>
-      <c r="B16" t="s">
-        <v>651</v>
-      </c>
-      <c r="C16" t="s">
-        <v>628</v>
-      </c>
-      <c r="D16">
-        <v>5</v>
-      </c>
-      <c r="E16" t="s">
-        <v>656</v>
-      </c>
-      <c r="F16" t="s">
-        <v>653</v>
-      </c>
-      <c r="H16" t="s">
-        <v>35</v>
-      </c>
-      <c r="I16" t="s">
-        <v>654</v>
-      </c>
-      <c r="J16" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>657</v>
-      </c>
-      <c r="B17" t="s">
-        <v>651</v>
-      </c>
-      <c r="C17" t="s">
-        <v>631</v>
-      </c>
-      <c r="D17">
-        <v>8</v>
-      </c>
-      <c r="E17" t="s">
-        <v>658</v>
-      </c>
-      <c r="F17" t="s">
-        <v>653</v>
-      </c>
-      <c r="H17" t="s">
-        <v>35</v>
-      </c>
-      <c r="I17" t="s">
-        <v>654</v>
-      </c>
-      <c r="J17" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>659</v>
-      </c>
-      <c r="B18" t="s">
-        <v>651</v>
-      </c>
-      <c r="C18" t="s">
-        <v>647</v>
-      </c>
-      <c r="D18">
-        <v>8</v>
-      </c>
-      <c r="E18" t="s">
-        <v>660</v>
-      </c>
-      <c r="F18" t="s">
-        <v>653</v>
-      </c>
-      <c r="H18" t="s">
-        <v>35</v>
-      </c>
-      <c r="I18" t="s">
-        <v>661</v>
-      </c>
-      <c r="J18" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>662</v>
-      </c>
-      <c r="B19" t="s">
-        <v>651</v>
-      </c>
-      <c r="C19" t="s">
-        <v>622</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19" t="s">
-        <v>652</v>
-      </c>
-      <c r="F19" t="s">
-        <v>653</v>
-      </c>
-      <c r="H19" t="s">
-        <v>35</v>
-      </c>
-      <c r="I19" t="s">
-        <v>663</v>
-      </c>
-      <c r="J19" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>664</v>
-      </c>
-      <c r="B20" t="s">
-        <v>651</v>
-      </c>
-      <c r="C20" t="s">
-        <v>628</v>
-      </c>
-      <c r="D20">
-        <v>5</v>
-      </c>
-      <c r="E20" t="s">
-        <v>656</v>
-      </c>
-      <c r="F20" t="s">
-        <v>653</v>
-      </c>
-      <c r="H20" t="s">
-        <v>35</v>
-      </c>
-      <c r="I20" t="s">
-        <v>663</v>
-      </c>
-      <c r="J20" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>665</v>
-      </c>
-      <c r="B21" t="s">
-        <v>651</v>
-      </c>
-      <c r="C21" t="s">
-        <v>631</v>
-      </c>
-      <c r="D21">
-        <v>8</v>
-      </c>
-      <c r="E21" t="s">
-        <v>658</v>
-      </c>
-      <c r="F21" t="s">
-        <v>653</v>
-      </c>
-      <c r="H21" t="s">
-        <v>35</v>
-      </c>
-      <c r="I21" t="s">
-        <v>663</v>
-      </c>
-      <c r="J21" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>666</v>
-      </c>
-      <c r="B22" t="s">
-        <v>651</v>
-      </c>
-      <c r="C22" t="s">
-        <v>622</v>
-      </c>
-      <c r="D22">
-        <v>2</v>
-      </c>
-      <c r="E22" t="s">
-        <v>652</v>
-      </c>
-      <c r="F22" t="s">
-        <v>653</v>
-      </c>
-      <c r="H22" t="s">
-        <v>35</v>
-      </c>
-      <c r="I22" t="s">
-        <v>667</v>
-      </c>
-      <c r="J22" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>668</v>
-      </c>
-      <c r="B23" t="s">
-        <v>651</v>
-      </c>
-      <c r="C23" t="s">
-        <v>628</v>
-      </c>
-      <c r="D23">
-        <v>5</v>
-      </c>
-      <c r="E23" t="s">
-        <v>656</v>
-      </c>
-      <c r="F23" t="s">
-        <v>653</v>
-      </c>
-      <c r="H23" t="s">
-        <v>35</v>
-      </c>
-      <c r="I23" t="s">
-        <v>667</v>
-      </c>
-      <c r="J23" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>669</v>
-      </c>
-      <c r="B24" t="s">
-        <v>651</v>
-      </c>
-      <c r="C24" t="s">
-        <v>631</v>
-      </c>
-      <c r="D24">
-        <v>8</v>
-      </c>
-      <c r="E24" t="s">
-        <v>658</v>
-      </c>
-      <c r="F24" t="s">
-        <v>653</v>
-      </c>
-      <c r="H24" t="s">
-        <v>35</v>
-      </c>
-      <c r="I24" t="s">
-        <v>667</v>
-      </c>
-      <c r="J24" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>670</v>
-      </c>
-      <c r="B25" t="s">
-        <v>651</v>
-      </c>
-      <c r="C25" t="s">
-        <v>647</v>
-      </c>
-      <c r="D25">
-        <v>8</v>
-      </c>
-      <c r="E25" t="s">
-        <v>660</v>
-      </c>
-      <c r="F25" t="s">
-        <v>653</v>
-      </c>
-      <c r="H25" t="s">
-        <v>35</v>
-      </c>
-      <c r="I25" t="s">
-        <v>671</v>
-      </c>
-      <c r="J25" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>672</v>
-      </c>
-      <c r="B26" t="s">
-        <v>651</v>
-      </c>
-      <c r="C26" t="s">
-        <v>622</v>
-      </c>
-      <c r="D26">
-        <v>2</v>
-      </c>
-      <c r="E26" t="s">
-        <v>652</v>
-      </c>
-      <c r="F26" t="s">
-        <v>653</v>
-      </c>
-      <c r="H26" t="s">
-        <v>35</v>
-      </c>
-      <c r="I26" t="s">
-        <v>673</v>
-      </c>
-      <c r="J26" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>674</v>
-      </c>
-      <c r="B27" t="s">
-        <v>651</v>
-      </c>
-      <c r="C27" t="s">
-        <v>628</v>
-      </c>
-      <c r="D27">
-        <v>5</v>
-      </c>
-      <c r="E27" t="s">
-        <v>656</v>
-      </c>
-      <c r="F27" t="s">
-        <v>653</v>
-      </c>
-      <c r="H27" t="s">
-        <v>35</v>
-      </c>
-      <c r="I27" t="s">
-        <v>673</v>
-      </c>
-      <c r="J27" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>675</v>
-      </c>
-      <c r="B28" t="s">
-        <v>651</v>
-      </c>
-      <c r="C28" t="s">
-        <v>631</v>
-      </c>
-      <c r="D28">
-        <v>8</v>
-      </c>
-      <c r="E28" t="s">
-        <v>658</v>
-      </c>
-      <c r="F28" t="s">
-        <v>653</v>
-      </c>
-      <c r="H28" t="s">
-        <v>35</v>
-      </c>
-      <c r="I28" t="s">
-        <v>673</v>
-      </c>
-      <c r="J28" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>676</v>
-      </c>
-      <c r="B29" t="s">
-        <v>651</v>
-      </c>
-      <c r="C29" t="s">
-        <v>622</v>
-      </c>
-      <c r="D29">
-        <v>2</v>
-      </c>
-      <c r="E29" t="s">
-        <v>652</v>
-      </c>
-      <c r="F29" t="s">
-        <v>653</v>
-      </c>
-      <c r="H29" t="s">
-        <v>35</v>
-      </c>
-      <c r="I29" t="s">
-        <v>677</v>
-      </c>
-      <c r="J29" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>678</v>
-      </c>
-      <c r="B30" t="s">
-        <v>651</v>
-      </c>
-      <c r="C30" t="s">
-        <v>628</v>
-      </c>
-      <c r="D30">
-        <v>5</v>
-      </c>
-      <c r="E30" t="s">
-        <v>656</v>
-      </c>
-      <c r="F30" t="s">
-        <v>653</v>
-      </c>
-      <c r="H30" t="s">
-        <v>35</v>
-      </c>
-      <c r="I30" t="s">
-        <v>677</v>
-      </c>
-      <c r="J30" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>679</v>
-      </c>
-      <c r="B31" t="s">
-        <v>651</v>
-      </c>
-      <c r="C31" t="s">
-        <v>631</v>
-      </c>
-      <c r="D31">
-        <v>8</v>
-      </c>
-      <c r="E31" t="s">
-        <v>658</v>
-      </c>
-      <c r="F31" t="s">
-        <v>653</v>
-      </c>
-      <c r="H31" t="s">
-        <v>35</v>
-      </c>
-      <c r="I31" t="s">
-        <v>677</v>
-      </c>
-      <c r="J31" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>680</v>
-      </c>
-      <c r="B32" t="s">
-        <v>651</v>
-      </c>
-      <c r="C32" t="s">
-        <v>647</v>
-      </c>
-      <c r="D32">
-        <v>8</v>
-      </c>
-      <c r="E32" t="s">
-        <v>660</v>
-      </c>
-      <c r="F32" t="s">
-        <v>653</v>
-      </c>
-      <c r="H32" t="s">
-        <v>35</v>
-      </c>
-      <c r="I32" t="s">
-        <v>681</v>
-      </c>
-      <c r="J32" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>682</v>
-      </c>
-      <c r="B33" t="s">
-        <v>651</v>
-      </c>
-      <c r="C33" t="s">
-        <v>622</v>
-      </c>
-      <c r="D33">
-        <v>2</v>
-      </c>
-      <c r="E33" t="s">
-        <v>652</v>
-      </c>
-      <c r="F33" t="s">
-        <v>653</v>
-      </c>
-      <c r="H33" t="s">
-        <v>35</v>
-      </c>
-      <c r="I33" t="s">
-        <v>683</v>
-      </c>
-      <c r="J33" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>684</v>
-      </c>
-      <c r="B34" t="s">
-        <v>651</v>
-      </c>
-      <c r="C34" t="s">
-        <v>628</v>
-      </c>
-      <c r="D34">
-        <v>5</v>
-      </c>
-      <c r="E34" t="s">
-        <v>656</v>
-      </c>
-      <c r="F34" t="s">
-        <v>653</v>
-      </c>
-      <c r="H34" t="s">
-        <v>35</v>
-      </c>
-      <c r="I34" t="s">
-        <v>683</v>
-      </c>
-      <c r="J34" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>685</v>
-      </c>
-      <c r="B35" t="s">
-        <v>651</v>
-      </c>
-      <c r="C35" t="s">
-        <v>631</v>
-      </c>
-      <c r="D35">
-        <v>8</v>
-      </c>
-      <c r="E35" t="s">
-        <v>658</v>
-      </c>
-      <c r="F35" t="s">
-        <v>653</v>
-      </c>
-      <c r="H35" t="s">
-        <v>35</v>
-      </c>
-      <c r="I35" t="s">
-        <v>683</v>
-      </c>
-      <c r="J35" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>686</v>
-      </c>
-      <c r="B36" t="s">
-        <v>651</v>
-      </c>
-      <c r="C36" t="s">
-        <v>622</v>
-      </c>
-      <c r="D36">
-        <v>2</v>
-      </c>
-      <c r="E36" t="s">
-        <v>652</v>
-      </c>
-      <c r="F36" t="s">
-        <v>653</v>
-      </c>
-      <c r="H36" t="s">
-        <v>35</v>
-      </c>
-      <c r="I36" t="s">
-        <v>687</v>
-      </c>
-      <c r="J36" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>688</v>
-      </c>
-      <c r="B37" t="s">
-        <v>651</v>
-      </c>
-      <c r="C37" t="s">
-        <v>628</v>
-      </c>
-      <c r="D37">
-        <v>5</v>
-      </c>
-      <c r="E37" t="s">
-        <v>656</v>
-      </c>
-      <c r="F37" t="s">
-        <v>653</v>
-      </c>
-      <c r="H37" t="s">
-        <v>35</v>
-      </c>
-      <c r="I37" t="s">
-        <v>687</v>
-      </c>
-      <c r="J37" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>689</v>
-      </c>
-      <c r="B38" t="s">
-        <v>651</v>
-      </c>
-      <c r="C38" t="s">
-        <v>631</v>
-      </c>
-      <c r="D38">
-        <v>8</v>
-      </c>
-      <c r="E38" t="s">
-        <v>658</v>
-      </c>
-      <c r="F38" t="s">
-        <v>653</v>
-      </c>
-      <c r="H38" t="s">
-        <v>35</v>
-      </c>
-      <c r="I38" t="s">
-        <v>687</v>
-      </c>
-      <c r="J38" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>690</v>
-      </c>
-      <c r="B39" t="s">
-        <v>651</v>
-      </c>
-      <c r="C39" t="s">
-        <v>622</v>
-      </c>
-      <c r="D39">
-        <v>2</v>
-      </c>
-      <c r="E39" t="s">
-        <v>652</v>
-      </c>
-      <c r="F39" t="s">
-        <v>653</v>
-      </c>
-      <c r="H39" t="s">
-        <v>35</v>
-      </c>
-      <c r="I39" t="s">
-        <v>691</v>
-      </c>
-      <c r="J39" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>692</v>
-      </c>
-      <c r="B40" t="s">
-        <v>651</v>
-      </c>
-      <c r="C40" t="s">
-        <v>628</v>
-      </c>
-      <c r="D40">
-        <v>5</v>
-      </c>
-      <c r="E40" t="s">
-        <v>656</v>
-      </c>
-      <c r="F40" t="s">
-        <v>653</v>
-      </c>
-      <c r="H40" t="s">
-        <v>35</v>
-      </c>
-      <c r="I40" t="s">
-        <v>691</v>
-      </c>
-      <c r="J40" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A41" t="s">
-        <v>693</v>
-      </c>
-      <c r="B41" t="s">
-        <v>651</v>
-      </c>
-      <c r="C41" t="s">
-        <v>631</v>
-      </c>
-      <c r="D41">
-        <v>8</v>
-      </c>
-      <c r="E41" t="s">
-        <v>658</v>
-      </c>
-      <c r="F41" t="s">
-        <v>653</v>
-      </c>
-      <c r="H41" t="s">
-        <v>35</v>
-      </c>
-      <c r="I41" t="s">
-        <v>691</v>
-      </c>
-      <c r="J41" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A42" t="s">
-        <v>694</v>
-      </c>
-      <c r="B42" t="s">
-        <v>651</v>
-      </c>
-      <c r="C42" t="s">
-        <v>622</v>
-      </c>
-      <c r="D42">
-        <v>2</v>
-      </c>
-      <c r="E42" t="s">
-        <v>652</v>
-      </c>
-      <c r="F42" t="s">
-        <v>653</v>
-      </c>
-      <c r="H42" t="s">
-        <v>35</v>
-      </c>
-      <c r="I42" t="s">
-        <v>695</v>
-      </c>
-      <c r="J42" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>696</v>
-      </c>
-      <c r="B43" t="s">
-        <v>651</v>
-      </c>
-      <c r="C43" t="s">
-        <v>628</v>
-      </c>
-      <c r="D43">
-        <v>5</v>
-      </c>
-      <c r="E43" t="s">
-        <v>656</v>
-      </c>
-      <c r="F43" t="s">
-        <v>653</v>
-      </c>
-      <c r="H43" t="s">
-        <v>35</v>
-      </c>
-      <c r="I43" t="s">
-        <v>695</v>
-      </c>
-      <c r="J43" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>697</v>
-      </c>
-      <c r="B44" t="s">
-        <v>651</v>
-      </c>
-      <c r="C44" t="s">
-        <v>631</v>
-      </c>
-      <c r="D44">
-        <v>8</v>
-      </c>
-      <c r="E44" t="s">
-        <v>658</v>
-      </c>
-      <c r="F44" t="s">
-        <v>653</v>
-      </c>
-      <c r="H44" t="s">
-        <v>35</v>
-      </c>
-      <c r="I44" t="s">
-        <v>695</v>
-      </c>
-      <c r="J44" t="s">
-        <v>626</v>
-      </c>
-    </row>
-    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>698</v>
-      </c>
-      <c r="B45" t="s">
-        <v>651</v>
-      </c>
-      <c r="C45" t="s">
-        <v>647</v>
-      </c>
-      <c r="D45">
-        <v>8</v>
-      </c>
-      <c r="E45" t="s">
-        <v>660</v>
-      </c>
-      <c r="F45" t="s">
-        <v>653</v>
-      </c>
-      <c r="H45" t="s">
-        <v>35</v>
-      </c>
-      <c r="I45" t="s">
-        <v>695</v>
-      </c>
-      <c r="J45" t="s">
-        <v>626</v>
       </c>
     </row>
   </sheetData>
@@ -15872,295 +14283,516 @@
 </worksheet>
 </file>
 
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100B210966C835D3645B75AF05C05F87B88" ma:contentTypeVersion="15" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="61456b10209d1c514a70dc8435a809ff">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="d72d6bc0-6e15-484f-b0bd-2466f1901205" xmlns:ns3="662ed8be-3c07-4514-9faf-3eefeed40b65" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="a9550713cb995c520ef34892eb0cbb51" ns2:_="" ns3:_="">
-    <xsd:import namespace="d72d6bc0-6e15-484f-b0bd-2466f1901205"/>
-    <xsd:import namespace="662ed8be-3c07-4514-9faf-3eefeed40b65"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceSearchProperties" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
-                <xsd:element ref="ns3:TaxCatchAll" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceDateTaken" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceLocation" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaLengthInSeconds" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceObjectDetectorVersions" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="d72d6bc0-6e15-484f-b0bd-2466f1901205" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceSearchProperties" ma:index="10" nillable="true" ma:displayName="MediaServiceSearchProperties" ma:hidden="true" ma:internalName="MediaServiceSearchProperties" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="lcf76f155ced4ddcb4097134ff3c332f" ma:index="14" nillable="true" ma:taxonomy="true" ma:internalName="lcf76f155ced4ddcb4097134ff3c332f" ma:taxonomyFieldName="MediaServiceImageTags" ma:displayName="Image Tags" ma:readOnly="false" ma:fieldId="{5cf76f15-5ced-4ddc-b409-7134ff3c332f}" ma:taxonomyMulti="true" ma:sspId="c0731830-533d-403e-8435-bc37187a931c" ma:termSetId="09814cd3-568e-fe90-9814-8d621ff8fb84" ma:anchorId="fba54fb3-c3e1-fe81-a776-ca4b69148c4d" ma:open="true" ma:isKeyword="false">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element ref="pc:Terms" minOccurs="0" maxOccurs="1"/>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="MediaServiceDateTaken" ma:index="16" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="17" nillable="true" ma:displayName="Extracted Text" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="18" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="19" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceLocation" ma:index="20" nillable="true" ma:displayName="Location" ma:indexed="true" ma:internalName="MediaServiceLocation" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaLengthInSeconds" ma:index="21" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Unknown"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceObjectDetectorVersions" ma:index="22" nillable="true" ma:displayName="MediaServiceObjectDetectorVersions" ma:hidden="true" ma:indexed="true" ma:internalName="MediaServiceObjectDetectorVersions" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="662ed8be-3c07-4514-9faf-3eefeed40b65" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="TaxCatchAll" ma:index="15" nillable="true" ma:displayName="Taxonomy Catch All Column" ma:hidden="true" ma:list="{bf20721b-7593-410a-b4ab-9416d81e623d}" ma:internalName="TaxCatchAll" ma:showField="CatchAllData" ma:web="662ed8be-3c07-4514-9faf-3eefeed40b65">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:MultiChoiceLookup">
-            <xsd:sequence>
-              <xsd:element name="Value" type="dms:Lookup" maxOccurs="unbounded" minOccurs="0" nillable="true"/>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="662ed8be-3c07-4514-9faf-3eefeed40b65" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="d72d6bc0-6e15-484f-b0bd-2466f1901205">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B38585C0-8F3F-4093-A872-F1F41F467D5A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="d72d6bc0-6e15-484f-b0bd-2466f1901205"/>
-    <ds:schemaRef ds:uri="662ed8be-3c07-4514-9faf-3eefeed40b65"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FF11F9FC-1FDC-414A-8F34-921D659490E2}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BBA237E9-DAE8-4BF3-B110-009E773C14CD}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="662ed8be-3c07-4514-9faf-3eefeed40b65"/>
-    <ds:schemaRef ds:uri="d72d6bc0-6e15-484f-b0bd-2466f1901205"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
+  <dimension ref="A1:P12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A1" s="108" t="s">
+        <v>605</v>
+      </c>
+      <c r="B1" s="108" t="s">
+        <v>614</v>
+      </c>
+      <c r="C1" s="108" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="108" t="s">
+        <v>615</v>
+      </c>
+      <c r="E1" s="108" t="s">
+        <v>616</v>
+      </c>
+      <c r="F1" s="108" t="s">
+        <v>617</v>
+      </c>
+      <c r="G1" s="108" t="s">
+        <v>618</v>
+      </c>
+      <c r="H1" s="108" t="s">
+        <v>619</v>
+      </c>
+      <c r="I1" s="108" t="s">
+        <v>620</v>
+      </c>
+      <c r="J1" s="108" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="108" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="108" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" s="108" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="108" t="s">
+        <v>44</v>
+      </c>
+      <c r="O1" s="108" t="s">
+        <v>48</v>
+      </c>
+      <c r="P1" s="108" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2324138046</v>
+      </c>
+      <c r="B2">
+        <v>12</v>
+      </c>
+      <c r="C2" t="s">
+        <v>621</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F2" t="s">
+        <v>46</v>
+      </c>
+      <c r="G2">
+        <v>8</v>
+      </c>
+      <c r="H2">
+        <v>0</v>
+      </c>
+      <c r="I2" t="s">
+        <v>186</v>
+      </c>
+      <c r="O2" t="b">
+        <v>1</v>
+      </c>
+      <c r="P2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2424138016</v>
+      </c>
+      <c r="B3">
+        <v>233</v>
+      </c>
+      <c r="C3" t="s">
+        <v>621</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>49</v>
+      </c>
+      <c r="F3" t="s">
+        <v>46</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3" t="s">
+        <v>183</v>
+      </c>
+      <c r="O3" t="b">
+        <v>1</v>
+      </c>
+      <c r="P3" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2424138034</v>
+      </c>
+      <c r="B4">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>621</v>
+      </c>
+      <c r="D4" t="s">
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>56</v>
+      </c>
+      <c r="F4" t="s">
+        <v>54</v>
+      </c>
+      <c r="G4">
+        <v>4</v>
+      </c>
+      <c r="H4">
+        <v>2</v>
+      </c>
+      <c r="I4" t="s">
+        <v>165</v>
+      </c>
+      <c r="J4" t="s">
+        <v>622</v>
+      </c>
+      <c r="K4" t="s">
+        <v>57</v>
+      </c>
+      <c r="O4" t="b">
+        <v>0</v>
+      </c>
+      <c r="P4" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>2424138034</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+      <c r="C5" t="s">
+        <v>621</v>
+      </c>
+      <c r="D5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F5" t="s">
+        <v>623</v>
+      </c>
+      <c r="G5">
+        <v>4</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5" t="s">
+        <v>165</v>
+      </c>
+      <c r="J5" t="s">
+        <v>622</v>
+      </c>
+      <c r="M5">
+        <v>150</v>
+      </c>
+      <c r="O5" t="b">
+        <v>0</v>
+      </c>
+      <c r="P5" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2424138034</v>
+      </c>
+      <c r="B6">
+        <v>25</v>
+      </c>
+      <c r="C6" t="s">
+        <v>621</v>
+      </c>
+      <c r="D6" t="s">
+        <v>61</v>
+      </c>
+      <c r="E6" t="s">
+        <v>62</v>
+      </c>
+      <c r="F6" t="s">
+        <v>624</v>
+      </c>
+      <c r="G6">
+        <v>4</v>
+      </c>
+      <c r="H6">
+        <v>2</v>
+      </c>
+      <c r="I6" t="s">
+        <v>165</v>
+      </c>
+      <c r="J6" t="s">
+        <v>622</v>
+      </c>
+      <c r="M6">
+        <v>150</v>
+      </c>
+      <c r="O6" t="b">
+        <v>0</v>
+      </c>
+      <c r="P6" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>2424138034</v>
+      </c>
+      <c r="B7">
+        <v>25</v>
+      </c>
+      <c r="C7" t="s">
+        <v>621</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+      <c r="E7" t="s">
+        <v>52</v>
+      </c>
+      <c r="F7" t="s">
+        <v>625</v>
+      </c>
+      <c r="G7">
+        <v>4</v>
+      </c>
+      <c r="H7">
+        <v>2</v>
+      </c>
+      <c r="I7" t="s">
+        <v>165</v>
+      </c>
+      <c r="J7" t="s">
+        <v>622</v>
+      </c>
+      <c r="L7" t="s">
+        <v>53</v>
+      </c>
+      <c r="O7" t="b">
+        <v>0</v>
+      </c>
+      <c r="P7" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>2424138016</v>
+      </c>
+      <c r="B8">
+        <v>233</v>
+      </c>
+      <c r="C8" t="s">
+        <v>621</v>
+      </c>
+      <c r="D8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F8" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8">
+        <v>4</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8" t="s">
+        <v>183</v>
+      </c>
+      <c r="J8" t="s">
+        <v>626</v>
+      </c>
+      <c r="K8" t="s">
+        <v>57</v>
+      </c>
+      <c r="O8" t="b">
+        <v>0</v>
+      </c>
+      <c r="P8" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>2424138016</v>
+      </c>
+      <c r="B9">
+        <v>233</v>
+      </c>
+      <c r="C9" t="s">
+        <v>621</v>
+      </c>
+      <c r="D9" t="s">
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
+        <v>59</v>
+      </c>
+      <c r="F9" t="s">
+        <v>623</v>
+      </c>
+      <c r="G9">
+        <v>4</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9" t="s">
+        <v>183</v>
+      </c>
+      <c r="J9" t="s">
+        <v>626</v>
+      </c>
+      <c r="M9">
+        <v>150</v>
+      </c>
+      <c r="O9" t="b">
+        <v>0</v>
+      </c>
+      <c r="P9" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2424138016</v>
+      </c>
+      <c r="B10">
+        <v>233</v>
+      </c>
+      <c r="C10" t="s">
+        <v>621</v>
+      </c>
+      <c r="D10" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s">
+        <v>62</v>
+      </c>
+      <c r="F10" t="s">
+        <v>624</v>
+      </c>
+      <c r="G10">
+        <v>4</v>
+      </c>
+      <c r="H10">
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>183</v>
+      </c>
+      <c r="J10" t="s">
+        <v>626</v>
+      </c>
+      <c r="M10">
+        <v>150</v>
+      </c>
+      <c r="O10" t="b">
+        <v>0</v>
+      </c>
+      <c r="P10" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>2424138016</v>
+      </c>
+      <c r="B11">
+        <v>233</v>
+      </c>
+      <c r="C11" t="s">
+        <v>621</v>
+      </c>
+      <c r="D11" t="s">
+        <v>50</v>
+      </c>
+      <c r="E11" t="s">
+        <v>52</v>
+      </c>
+      <c r="F11" t="s">
+        <v>625</v>
+      </c>
+      <c r="G11">
+        <v>4</v>
+      </c>
+      <c r="H11">
+        <v>2</v>
+      </c>
+      <c r="I11" t="s">
+        <v>183</v>
+      </c>
+      <c r="J11" t="s">
+        <v>626</v>
+      </c>
+      <c r="L11" t="s">
+        <v>53</v>
+      </c>
+      <c r="O11" t="b">
+        <v>0</v>
+      </c>
+      <c r="P11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>627</v>
+      </c>
+      <c r="B12" t="s">
+        <v>163</v>
+      </c>
+      <c r="C12" t="s">
+        <v>621</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>49</v>
+      </c>
+      <c r="F12" t="s">
+        <v>46</v>
+      </c>
+      <c r="G12">
+        <v>4</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12" t="s">
+        <v>165</v>
+      </c>
+      <c r="J12" t="s">
+        <v>628</v>
+      </c>
+      <c r="L12" t="s">
+        <v>629</v>
+      </c>
+      <c r="M12" t="s">
+        <v>629</v>
+      </c>
+      <c r="N12" t="s">
+        <v>629</v>
+      </c>
+      <c r="O12" t="b">
+        <v>1</v>
+      </c>
+      <c r="P12" t="s">
+        <v>199</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/TimeSheet Apps.xlsx
+++ b/TimeSheet Apps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c02271ef1bb6280a/timesheet_app_full_package/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_6E75BC3CDA63CABA861973FFF1A5261D0C677E92" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{04D08217-83DD-41F5-AA31-3FED3905C31D}"/>
+  <xr:revisionPtr revIDLastSave="25" documentId="11_6E75BC3CDA63CABA861973FFF1A5261D0C677E92" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{804789BB-C923-57CF-AD9C-EB1A22466E98}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28830" yWindow="30" windowWidth="28770" windowHeight="15450" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeEntries" sheetId="1" r:id="rId1"/>

--- a/TimeSheet Apps.xlsx
+++ b/TimeSheet Apps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c02271ef1bb6280a/timesheet_app_full_package/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="25" documentId="11_6E75BC3CDA63CABA861973FFF1A5261D0C677E92" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{804789BB-C923-57CF-AD9C-EB1A22466E98}"/>
+  <xr:revisionPtr revIDLastSave="49" documentId="11_6E75BC3CDA63CABA861973FFF1A5261D0C677E92" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68645F0B-50FE-4ED1-8EAE-1402497CC7FF}"/>
   <bookViews>
-    <workbookView xWindow="28830" yWindow="30" windowWidth="28770" windowHeight="15450" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28830" yWindow="30" windowWidth="28770" windowHeight="15450" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeEntries" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="925" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="635">
   <si>
     <t>** Note: Please do not exceed 2000 rows of data.</t>
   </si>
@@ -1918,6 +1918,21 @@
   </si>
   <si>
     <t>nan</t>
+  </si>
+  <si>
+    <t>GRAHAM ST HILAIRE</t>
+  </si>
+  <si>
+    <t>15432I</t>
+  </si>
+  <si>
+    <t>Shawn Harcourt</t>
+  </si>
+  <si>
+    <t>SHarcourt@ptwenergy.com</t>
+  </si>
+  <si>
+    <t>User</t>
   </si>
 </sst>
 </file>
@@ -2686,7 +2701,7 @@
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
-  <dxfs count="25">
+  <dxfs count="26">
     <dxf>
       <font>
         <color auto="1"/>
@@ -2857,6 +2872,9 @@
       <alignment horizontal="center" vertical="center"/>
     </dxf>
     <dxf>
+      <alignment horizontal="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="general" vertical="center"/>
     </dxf>
@@ -2888,7 +2906,7 @@
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="1" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
-      <tableStyleElement type="wholeTable" dxfId="24"/>
+      <tableStyleElement type="wholeTable" dxfId="25"/>
     </tableStyle>
   </tableStyles>
   <extLst>
@@ -2958,8 +2976,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table6" displayName="Table6" ref="A1:E4" totalsRowShown="0">
-  <autoFilter ref="A1:E4" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table6" displayName="Table6" ref="A1:E5" totalsRowShown="0">
+  <autoFilter ref="A1:E5" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="User's Name"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="Email"/>
@@ -2972,15 +2990,15 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="EmployeeList" displayName="EmployeeList" ref="A1:J11" totalsRowShown="0" headerRowDxfId="23">
-  <autoFilter ref="A1:J11" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J11">
-    <sortCondition ref="C1:C11"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF01000000}" name="EmployeeList" displayName="EmployeeList" ref="A1:J12" totalsRowShown="0" headerRowDxfId="24">
+  <autoFilter ref="A1:J12" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:J12">
+    <sortCondition ref="C1:C12"/>
   </sortState>
   <tableColumns count="10">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0100-000001000000}" name="Time Record Type"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Person Number" dataDxfId="22"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Employee Name"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0100-000002000000}" name="Person Number" dataDxfId="23"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0100-000003000000}" name="Employee Name" dataDxfId="22"/>
     <tableColumn id="8" xr3:uid="{00000000-0010-0000-0100-000008000000}" name="Indirect / Direct" dataDxfId="21"/>
     <tableColumn id="4" xr3:uid="{00000000-0010-0000-0100-000004000000}" name="Override Trade Class"/>
     <tableColumn id="6" xr3:uid="{00000000-0010-0000-0100-000006000000}" name="Night Shift" dataDxfId="20"/>
@@ -2995,13 +3013,7 @@
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{00000000-000C-0000-FFFF-FFFF02000000}" name="JobNumbers" displayName="JobNumbers" ref="A1:G44" totalsRowShown="0">
-  <autoFilter ref="A1:G44" xr:uid="{00000000-0009-0000-0100-000003000000}">
-    <filterColumn colId="6">
-      <filters>
-        <filter val="TRUE"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:G44" xr:uid="{00000000-0009-0000-0100-000003000000}"/>
   <tableColumns count="7">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0200-000001000000}" name="PROJECT NAME"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0200-000002000000}" name="AFE#"/>
@@ -9641,10 +9653,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9713,25 +9725,40 @@
         <v>1</v>
       </c>
     </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>632</v>
+      </c>
+      <c r="B5" s="22" t="s">
+        <v>633</v>
+      </c>
+      <c r="D5" t="s">
+        <v>634</v>
+      </c>
+      <c r="E5" t="b">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B2" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
     <hyperlink ref="B3" r:id="rId2" xr:uid="{00000000-0004-0000-0200-000001000000}"/>
     <hyperlink ref="B4" r:id="rId3" xr:uid="{00000000-0004-0000-0200-000002000000}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{AEC6B1E7-6C2C-42E8-9A34-1595F8A8461F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9845,9 +9872,7 @@
       <c r="E4" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="15" t="s">
-        <v>57</v>
-      </c>
+      <c r="F4" s="15"/>
       <c r="G4" s="15"/>
       <c r="H4" s="15"/>
       <c r="I4" s="15"/>
@@ -9873,9 +9898,7 @@
       </c>
       <c r="F5" s="15"/>
       <c r="G5" s="15"/>
-      <c r="H5" s="15">
-        <v>150</v>
-      </c>
+      <c r="H5" s="15"/>
       <c r="I5" s="15"/>
       <c r="J5" s="15" t="b">
         <v>1</v>
@@ -9899,9 +9922,7 @@
       </c>
       <c r="F6" s="15"/>
       <c r="G6" s="15"/>
-      <c r="H6" s="15">
-        <v>150</v>
-      </c>
+      <c r="H6" s="15"/>
       <c r="I6" s="15"/>
       <c r="J6" s="15" t="b">
         <v>1</v>
@@ -9925,9 +9946,7 @@
       </c>
       <c r="F7" s="15"/>
       <c r="G7" s="15"/>
-      <c r="H7" s="15">
-        <v>150</v>
-      </c>
+      <c r="H7" s="15"/>
       <c r="I7" s="15"/>
       <c r="J7" s="15" t="b">
         <v>1</v>
@@ -9938,16 +9957,16 @@
         <v>45</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>64</v>
+        <v>631</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>630</v>
       </c>
       <c r="D8" s="15" t="s">
         <v>51</v>
       </c>
       <c r="E8" s="15" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
@@ -9961,17 +9980,17 @@
       <c r="A9" s="15" t="s">
         <v>45</v>
       </c>
-      <c r="B9" s="20">
-        <v>17418</v>
+      <c r="B9" s="20" t="s">
+        <v>63</v>
       </c>
       <c r="C9" s="15" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>51</v>
       </c>
       <c r="E9" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F9" s="15"/>
       <c r="G9" s="15"/>
@@ -9986,23 +10005,23 @@
         <v>45</v>
       </c>
       <c r="B10" s="20">
-        <v>17163</v>
+        <v>17418</v>
       </c>
       <c r="C10" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>51</v>
       </c>
       <c r="E10" s="15" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F10" s="15"/>
       <c r="G10" s="15"/>
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
       <c r="J10" s="15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -10010,22 +10029,46 @@
         <v>45</v>
       </c>
       <c r="B11" s="20">
-        <v>17446</v>
+        <v>17163</v>
       </c>
       <c r="C11" s="15" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="D11" s="15" t="s">
         <v>51</v>
       </c>
       <c r="E11" s="15" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="F11" s="15"/>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="B12" s="20">
+        <v>17446</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>70</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>51</v>
+      </c>
+      <c r="E12" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+      <c r="J12" s="15" t="b">
         <v>1</v>
       </c>
     </row>
@@ -10042,7 +10085,7 @@
   <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F53" sqref="F53"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -10079,7 +10122,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="2" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="14" t="s">
         <v>78</v>
       </c>
@@ -10102,7 +10145,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="14" t="s">
         <v>78</v>
       </c>
@@ -10125,7 +10168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="14" t="s">
         <v>78</v>
       </c>
@@ -10148,7 +10191,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="14" t="s">
         <v>78</v>
       </c>
@@ -10171,7 +10214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="14" t="s">
         <v>78</v>
       </c>
@@ -10194,7 +10237,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="14" t="s">
         <v>78</v>
       </c>
@@ -10217,7 +10260,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="14" t="s">
         <v>78</v>
       </c>
@@ -10240,7 +10283,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="14" t="s">
         <v>78</v>
       </c>
@@ -10263,7 +10306,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="14" t="s">
         <v>78</v>
       </c>
@@ -10286,7 +10329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="14" t="s">
         <v>78</v>
       </c>
@@ -10309,7 +10352,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="14" t="s">
         <v>78</v>
       </c>
@@ -10332,7 +10375,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="14" t="s">
         <v>78</v>
       </c>
@@ -10353,7 +10396,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="14" t="s">
         <v>78</v>
       </c>
@@ -10376,7 +10419,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="14" t="s">
         <v>112</v>
       </c>
@@ -10397,7 +10440,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="14" t="s">
         <v>112</v>
       </c>
@@ -10420,7 +10463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="14" t="s">
         <v>78</v>
       </c>
@@ -10443,7 +10486,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="14" t="s">
         <v>78</v>
       </c>
@@ -10466,7 +10509,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="14" t="s">
         <v>78</v>
       </c>
@@ -10489,7 +10532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="14" t="s">
         <v>78</v>
       </c>
@@ -10512,7 +10555,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="14" t="s">
         <v>112</v>
       </c>
@@ -10535,7 +10578,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="14" t="s">
         <v>112</v>
       </c>
@@ -10558,7 +10601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="23" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="14" t="s">
         <v>112</v>
       </c>
@@ -10581,7 +10624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="14" t="s">
         <v>112</v>
       </c>
@@ -10604,7 +10647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="14" t="s">
         <v>78</v>
       </c>
@@ -10627,7 +10670,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="14" t="s">
         <v>78</v>
       </c>
@@ -10650,7 +10693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="14" t="s">
         <v>78</v>
       </c>
@@ -10673,7 +10716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="14" t="s">
         <v>112</v>
       </c>
@@ -10696,7 +10739,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="14" t="s">
         <v>112</v>
       </c>
@@ -10719,7 +10762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="30" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="14" t="s">
         <v>78</v>
       </c>
@@ -10742,7 +10785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="31" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="14" t="s">
         <v>78</v>
       </c>
@@ -10765,7 +10808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="14" t="s">
         <v>78</v>
       </c>
@@ -10788,7 +10831,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="33" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="14" t="s">
         <v>78</v>
       </c>
@@ -10811,7 +10854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="34" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="14" t="s">
         <v>78</v>
       </c>
@@ -10901,7 +10944,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="14" t="s">
         <v>112</v>
       </c>
@@ -10924,7 +10967,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="14" t="s">
         <v>112</v>
       </c>
@@ -10947,7 +10990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="14" t="s">
         <v>112</v>
       </c>
@@ -10970,7 +11013,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="41" spans="1:7" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="14" t="s">
         <v>112</v>
       </c>
@@ -11073,7 +11116,7 @@
   <dimension ref="A1:C323"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J37" sqref="J37"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11167,7 +11210,7 @@
         <v>200</v>
       </c>
       <c r="C8" s="15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
@@ -14287,7 +14330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:P12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>

--- a/TimeSheet Apps.xlsx
+++ b/TimeSheet Apps.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c02271ef1bb6280a/timesheet_app_full_package/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="49" documentId="11_6E75BC3CDA63CABA861973FFF1A5261D0C677E92" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{68645F0B-50FE-4ED1-8EAE-1402497CC7FF}"/>
+  <xr:revisionPtr revIDLastSave="50" documentId="11_6E75BC3CDA63CABA861973FFF1A5261D0C677E92" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F73D265-CD87-4F2A-891D-45C7349BF884}"/>
   <bookViews>
-    <workbookView xWindow="28830" yWindow="30" windowWidth="28770" windowHeight="15450" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28830" yWindow="30" windowWidth="28770" windowHeight="15450" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="TimeEntries" sheetId="1" r:id="rId1"/>
@@ -9757,8 +9757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11115,8 +11115,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:C323"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11210,7 +11210,7 @@
         <v>200</v>
       </c>
       <c r="C8" s="15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">

--- a/TimeSheet Apps.xlsx
+++ b/TimeSheet Apps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c02271ef1bb6280a/timesheet_app_full_package/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="50" documentId="11_6E75BC3CDA63CABA861973FFF1A5261D0C677E92" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F73D265-CD87-4F2A-891D-45C7349BF884}"/>
+  <xr:revisionPtr revIDLastSave="51" documentId="11_6E75BC3CDA63CABA861973FFF1A5261D0C677E92" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A607B159-5324-4787-B728-0861CF18023E}"/>
   <bookViews>
     <workbookView xWindow="28830" yWindow="30" windowWidth="28770" windowHeight="15450" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11116,7 +11116,7 @@
   <dimension ref="A1:C323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11210,7 +11210,7 @@
         <v>200</v>
       </c>
       <c r="C8" s="15" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">

--- a/TimeSheet Apps.xlsx
+++ b/TimeSheet Apps.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/c02271ef1bb6280a/timesheet_app_full_package/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="51" documentId="11_6E75BC3CDA63CABA861973FFF1A5261D0C677E92" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{A607B159-5324-4787-B728-0861CF18023E}"/>
+  <xr:revisionPtr revIDLastSave="52" documentId="11_6E75BC3CDA63CABA861973FFF1A5261D0C677E92" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8288CA5C-B9D2-477F-8D6E-B1905FA3CF4B}"/>
   <bookViews>
     <workbookView xWindow="28830" yWindow="30" windowWidth="28770" windowHeight="15450" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11116,7 +11116,7 @@
   <dimension ref="A1:C323"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11210,7 +11210,7 @@
         <v>200</v>
       </c>
       <c r="C8" s="15" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
